--- a/rules/8221.xlsx
+++ b/rules/8221.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6550" uniqueCount="2804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6541" uniqueCount="2800">
   <si>
     <t>姓名</t>
   </si>
@@ -5545,18 +5545,6 @@
   </si>
   <si>
     <t>沈阳市青松中学</t>
-  </si>
-  <si>
-    <t>姜赞洙</t>
-  </si>
-  <si>
-    <t>220523198002122837</t>
-  </si>
-  <si>
-    <t>1980-02-12</t>
-  </si>
-  <si>
-    <t>沈阳市朝鲜族第二中学</t>
   </si>
   <si>
     <t>李梦玉</t>
@@ -9650,10 +9638,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:J729"/>
+  <dimension ref="A2:J728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="E477" sqref="E477"/>
+    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
+      <selection activeCell="A476" sqref="A476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -24903,7 +24891,7 @@
         <v>1838</v>
       </c>
       <c r="B478">
-        <v>15940211815</v>
+        <v>17640090270</v>
       </c>
       <c r="C478" t="s">
         <v>11</v>
@@ -24915,7 +24903,7 @@
         <v>1840</v>
       </c>
       <c r="F478" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G478" t="s">
         <v>1841</v>
@@ -24927,7 +24915,7 @@
         <v>17</v>
       </c>
       <c r="J478" t="s">
-        <v>87</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="479" spans="1:10">
@@ -24935,7 +24923,7 @@
         <v>1842</v>
       </c>
       <c r="B479">
-        <v>17640090270</v>
+        <v>15041289892</v>
       </c>
       <c r="C479" t="s">
         <v>11</v>
@@ -24959,7 +24947,7 @@
         <v>17</v>
       </c>
       <c r="J479" t="s">
-        <v>1473</v>
+        <v>96</v>
       </c>
     </row>
     <row r="480" spans="1:10">
@@ -24967,7 +24955,7 @@
         <v>1846</v>
       </c>
       <c r="B480">
-        <v>15041289892</v>
+        <v>15998100817</v>
       </c>
       <c r="C480" t="s">
         <v>11</v>
@@ -24982,7 +24970,7 @@
         <v>14</v>
       </c>
       <c r="G480" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="H480" t="s">
         <v>16</v>
@@ -24996,25 +24984,25 @@
     </row>
     <row r="481" spans="1:10">
       <c r="A481" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B481">
+        <v>15640364178</v>
+      </c>
+      <c r="C481" t="s">
+        <v>11</v>
+      </c>
+      <c r="D481" s="6" t="s">
         <v>1850</v>
       </c>
-      <c r="B481">
-        <v>15998100817</v>
-      </c>
-      <c r="C481" t="s">
-        <v>11</v>
-      </c>
-      <c r="D481" t="s">
+      <c r="E481" s="4">
+        <v>26269</v>
+      </c>
+      <c r="F481" t="s">
+        <v>14</v>
+      </c>
+      <c r="G481" t="s">
         <v>1851</v>
-      </c>
-      <c r="E481" t="s">
-        <v>1852</v>
-      </c>
-      <c r="F481" t="s">
-        <v>14</v>
-      </c>
-      <c r="G481" t="s">
-        <v>1849</v>
       </c>
       <c r="H481" t="s">
         <v>16</v>
@@ -25028,25 +25016,25 @@
     </row>
     <row r="482" spans="1:10">
       <c r="A482" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B482">
+        <v>15142029582</v>
+      </c>
+      <c r="C482" t="s">
+        <v>11</v>
+      </c>
+      <c r="D482" t="s">
         <v>1853</v>
       </c>
-      <c r="B482">
-        <v>15640364178</v>
-      </c>
-      <c r="C482" t="s">
-        <v>11</v>
-      </c>
-      <c r="D482" s="6" t="s">
+      <c r="E482" t="s">
         <v>1854</v>
       </c>
-      <c r="E482" s="4">
-        <v>26269</v>
-      </c>
       <c r="F482" t="s">
         <v>14</v>
       </c>
       <c r="G482" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="H482" t="s">
         <v>16</v>
@@ -25060,25 +25048,25 @@
     </row>
     <row r="483" spans="1:10">
       <c r="A483" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B483">
+        <v>17671749309</v>
+      </c>
+      <c r="C483" t="s">
+        <v>11</v>
+      </c>
+      <c r="D483" t="s">
         <v>1856</v>
       </c>
-      <c r="B483">
-        <v>15142029582</v>
-      </c>
-      <c r="C483" t="s">
-        <v>11</v>
-      </c>
-      <c r="D483" t="s">
+      <c r="E483" t="s">
         <v>1857</v>
       </c>
-      <c r="E483" t="s">
+      <c r="F483" t="s">
+        <v>14</v>
+      </c>
+      <c r="G483" t="s">
         <v>1858</v>
-      </c>
-      <c r="F483" t="s">
-        <v>14</v>
-      </c>
-      <c r="G483" t="s">
-        <v>1855</v>
       </c>
       <c r="H483" t="s">
         <v>16</v>
@@ -25095,7 +25083,7 @@
         <v>1859</v>
       </c>
       <c r="B484">
-        <v>17671749309</v>
+        <v>13478190278</v>
       </c>
       <c r="C484" t="s">
         <v>11</v>
@@ -25127,7 +25115,7 @@
         <v>1863</v>
       </c>
       <c r="B485">
-        <v>13478190278</v>
+        <v>18842325311</v>
       </c>
       <c r="C485" t="s">
         <v>11</v>
@@ -25159,7 +25147,7 @@
         <v>1867</v>
       </c>
       <c r="B486">
-        <v>18842325311</v>
+        <v>18686842932</v>
       </c>
       <c r="C486" t="s">
         <v>11</v>
@@ -25191,7 +25179,7 @@
         <v>1871</v>
       </c>
       <c r="B487">
-        <v>18686842932</v>
+        <v>13889243330</v>
       </c>
       <c r="C487" t="s">
         <v>11</v>
@@ -25215,7 +25203,7 @@
         <v>17</v>
       </c>
       <c r="J487" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="488" spans="1:10">
@@ -25223,7 +25211,7 @@
         <v>1875</v>
       </c>
       <c r="B488">
-        <v>13889243330</v>
+        <v>19818830517</v>
       </c>
       <c r="C488" t="s">
         <v>11</v>
@@ -25235,7 +25223,7 @@
         <v>1877</v>
       </c>
       <c r="F488" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G488" t="s">
         <v>1878</v>
@@ -25255,7 +25243,7 @@
         <v>1879</v>
       </c>
       <c r="B489">
-        <v>19818830517</v>
+        <v>17767977137</v>
       </c>
       <c r="C489" t="s">
         <v>11</v>
@@ -25267,7 +25255,7 @@
         <v>1881</v>
       </c>
       <c r="F489" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G489" t="s">
         <v>1882</v>
@@ -25287,7 +25275,7 @@
         <v>1883</v>
       </c>
       <c r="B490">
-        <v>17767977137</v>
+        <v>13514289783</v>
       </c>
       <c r="C490" t="s">
         <v>11</v>
@@ -25299,7 +25287,7 @@
         <v>1885</v>
       </c>
       <c r="F490" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G490" t="s">
         <v>1886</v>
@@ -25319,7 +25307,7 @@
         <v>1887</v>
       </c>
       <c r="B491">
-        <v>13514289783</v>
+        <v>13889802459</v>
       </c>
       <c r="C491" t="s">
         <v>11</v>
@@ -25331,7 +25319,7 @@
         <v>1889</v>
       </c>
       <c r="F491" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G491" t="s">
         <v>1890</v>
@@ -25351,7 +25339,7 @@
         <v>1891</v>
       </c>
       <c r="B492">
-        <v>13889802459</v>
+        <v>13840590824</v>
       </c>
       <c r="C492" t="s">
         <v>11</v>
@@ -25383,7 +25371,7 @@
         <v>1895</v>
       </c>
       <c r="B493">
-        <v>13840590824</v>
+        <v>15041279828</v>
       </c>
       <c r="C493" t="s">
         <v>11</v>
@@ -25415,7 +25403,7 @@
         <v>1899</v>
       </c>
       <c r="B494">
-        <v>15041279828</v>
+        <v>13674184394</v>
       </c>
       <c r="C494" t="s">
         <v>11</v>
@@ -25447,7 +25435,7 @@
         <v>1903</v>
       </c>
       <c r="B495">
-        <v>13674184394</v>
+        <v>13998820136</v>
       </c>
       <c r="C495" t="s">
         <v>11</v>
@@ -25479,7 +25467,7 @@
         <v>1907</v>
       </c>
       <c r="B496">
-        <v>13998820136</v>
+        <v>13352457292</v>
       </c>
       <c r="C496" t="s">
         <v>11</v>
@@ -25511,7 +25499,7 @@
         <v>1911</v>
       </c>
       <c r="B497">
-        <v>13352457292</v>
+        <v>13940686224</v>
       </c>
       <c r="C497" t="s">
         <v>11</v>
@@ -25543,7 +25531,7 @@
         <v>1915</v>
       </c>
       <c r="B498">
-        <v>13940686224</v>
+        <v>18540359316</v>
       </c>
       <c r="C498" t="s">
         <v>11</v>
@@ -25575,7 +25563,7 @@
         <v>1919</v>
       </c>
       <c r="B499">
-        <v>18540359316</v>
+        <v>13889255528</v>
       </c>
       <c r="C499" t="s">
         <v>11</v>
@@ -25607,7 +25595,7 @@
         <v>1923</v>
       </c>
       <c r="B500">
-        <v>13889255528</v>
+        <v>15940457855</v>
       </c>
       <c r="C500" t="s">
         <v>11</v>
@@ -25619,7 +25607,7 @@
         <v>1925</v>
       </c>
       <c r="F500" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G500" t="s">
         <v>1926</v>
@@ -25631,7 +25619,7 @@
         <v>17</v>
       </c>
       <c r="J500" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="501" spans="1:10">
@@ -25639,7 +25627,7 @@
         <v>1927</v>
       </c>
       <c r="B501">
-        <v>15940457855</v>
+        <v>13032469999</v>
       </c>
       <c r="C501" t="s">
         <v>11</v>
@@ -25651,7 +25639,7 @@
         <v>1929</v>
       </c>
       <c r="F501" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G501" t="s">
         <v>1930</v>
@@ -25671,7 +25659,7 @@
         <v>1931</v>
       </c>
       <c r="B502">
-        <v>13032469999</v>
+        <v>15840303081</v>
       </c>
       <c r="C502" t="s">
         <v>11</v>
@@ -25703,7 +25691,7 @@
         <v>1935</v>
       </c>
       <c r="B503">
-        <v>15840303081</v>
+        <v>15940180148</v>
       </c>
       <c r="C503" t="s">
         <v>11</v>
@@ -25735,7 +25723,7 @@
         <v>1939</v>
       </c>
       <c r="B504">
-        <v>15940180148</v>
+        <v>18940289126</v>
       </c>
       <c r="C504" t="s">
         <v>11</v>
@@ -25767,7 +25755,7 @@
         <v>1943</v>
       </c>
       <c r="B505">
-        <v>18940289126</v>
+        <v>13842003367</v>
       </c>
       <c r="C505" t="s">
         <v>11</v>
@@ -25799,7 +25787,7 @@
         <v>1947</v>
       </c>
       <c r="B506">
-        <v>13842003367</v>
+        <v>17644047221</v>
       </c>
       <c r="C506" t="s">
         <v>11</v>
@@ -25811,7 +25799,7 @@
         <v>1949</v>
       </c>
       <c r="F506" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G506" t="s">
         <v>1950</v>
@@ -25831,7 +25819,7 @@
         <v>1951</v>
       </c>
       <c r="B507">
-        <v>17644047221</v>
+        <v>13898801364</v>
       </c>
       <c r="C507" t="s">
         <v>11</v>
@@ -25843,7 +25831,7 @@
         <v>1953</v>
       </c>
       <c r="F507" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G507" t="s">
         <v>1954</v>
@@ -25863,7 +25851,7 @@
         <v>1955</v>
       </c>
       <c r="B508">
-        <v>13898801364</v>
+        <v>15940413778</v>
       </c>
       <c r="C508" t="s">
         <v>11</v>
@@ -25895,7 +25883,7 @@
         <v>1959</v>
       </c>
       <c r="B509">
-        <v>15940413778</v>
+        <v>15002492200</v>
       </c>
       <c r="C509" t="s">
         <v>11</v>
@@ -25907,7 +25895,7 @@
         <v>1961</v>
       </c>
       <c r="F509" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G509" t="s">
         <v>1962</v>
@@ -25927,7 +25915,7 @@
         <v>1963</v>
       </c>
       <c r="B510">
-        <v>15002492200</v>
+        <v>13898839322</v>
       </c>
       <c r="C510" t="s">
         <v>11</v>
@@ -25939,7 +25927,7 @@
         <v>1965</v>
       </c>
       <c r="F510" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G510" t="s">
         <v>1966</v>
@@ -25959,7 +25947,7 @@
         <v>1967</v>
       </c>
       <c r="B511">
-        <v>13898839322</v>
+        <v>18524905914</v>
       </c>
       <c r="C511" t="s">
         <v>11</v>
@@ -25991,7 +25979,7 @@
         <v>1971</v>
       </c>
       <c r="B512">
-        <v>18524905914</v>
+        <v>15840373407</v>
       </c>
       <c r="C512" t="s">
         <v>11</v>
@@ -26023,7 +26011,7 @@
         <v>1975</v>
       </c>
       <c r="B513">
-        <v>15840373407</v>
+        <v>18640030685</v>
       </c>
       <c r="C513" t="s">
         <v>11</v>
@@ -26052,25 +26040,25 @@
     </row>
     <row r="514" spans="1:10">
       <c r="A514" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B514">
+        <v>13804907299</v>
+      </c>
+      <c r="C514" t="s">
+        <v>11</v>
+      </c>
+      <c r="D514" t="s">
         <v>1979</v>
       </c>
-      <c r="B514">
-        <v>18640030685</v>
-      </c>
-      <c r="C514" t="s">
-        <v>11</v>
-      </c>
-      <c r="D514" t="s">
+      <c r="E514" t="s">
         <v>1980</v>
       </c>
-      <c r="E514" t="s">
+      <c r="F514" t="s">
+        <v>14</v>
+      </c>
+      <c r="G514" t="s">
         <v>1981</v>
-      </c>
-      <c r="F514" t="s">
-        <v>14</v>
-      </c>
-      <c r="G514" t="s">
-        <v>1982</v>
       </c>
       <c r="H514" t="s">
         <v>16</v>
@@ -26084,10 +26072,10 @@
     </row>
     <row r="515" spans="1:10">
       <c r="A515" t="s">
-        <v>1850</v>
+        <v>1982</v>
       </c>
       <c r="B515">
-        <v>13804907299</v>
+        <v>13998384047</v>
       </c>
       <c r="C515" t="s">
         <v>11</v>
@@ -26119,7 +26107,7 @@
         <v>1986</v>
       </c>
       <c r="B516">
-        <v>13998384047</v>
+        <v>17612403546</v>
       </c>
       <c r="C516" t="s">
         <v>11</v>
@@ -26143,7 +26131,7 @@
         <v>17</v>
       </c>
       <c r="J516" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="517" spans="1:10">
@@ -26151,7 +26139,7 @@
         <v>1990</v>
       </c>
       <c r="B517">
-        <v>17612403546</v>
+        <v>13898114007</v>
       </c>
       <c r="C517" t="s">
         <v>11</v>
@@ -26163,7 +26151,7 @@
         <v>1992</v>
       </c>
       <c r="F517" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G517" t="s">
         <v>1993</v>
@@ -26175,7 +26163,7 @@
         <v>17</v>
       </c>
       <c r="J517" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
     </row>
     <row r="518" spans="1:10">
@@ -26183,7 +26171,7 @@
         <v>1994</v>
       </c>
       <c r="B518">
-        <v>13898114007</v>
+        <v>13709828656</v>
       </c>
       <c r="C518" t="s">
         <v>11</v>
@@ -26195,7 +26183,7 @@
         <v>1996</v>
       </c>
       <c r="F518" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G518" t="s">
         <v>1997</v>
@@ -26207,7 +26195,7 @@
         <v>17</v>
       </c>
       <c r="J518" t="s">
-        <v>82</v>
+        <v>248</v>
       </c>
     </row>
     <row r="519" spans="1:10">
@@ -26215,7 +26203,7 @@
         <v>1998</v>
       </c>
       <c r="B519">
-        <v>13709828656</v>
+        <v>15840456986</v>
       </c>
       <c r="C519" t="s">
         <v>11</v>
@@ -26224,14 +26212,14 @@
         <v>1999</v>
       </c>
       <c r="E519" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F519" t="s">
+        <v>48</v>
+      </c>
+      <c r="G519" t="s">
         <v>2000</v>
       </c>
-      <c r="F519" t="s">
-        <v>14</v>
-      </c>
-      <c r="G519" t="s">
-        <v>2001</v>
-      </c>
       <c r="H519" t="s">
         <v>16</v>
       </c>
@@ -26239,27 +26227,27 @@
         <v>17</v>
       </c>
       <c r="J519" t="s">
-        <v>248</v>
+        <v>82</v>
       </c>
     </row>
     <row r="520" spans="1:10">
       <c r="A520" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B520">
+        <v>13940127910</v>
+      </c>
+      <c r="C520" t="s">
+        <v>11</v>
+      </c>
+      <c r="D520" t="s">
         <v>2002</v>
       </c>
-      <c r="B520">
-        <v>15840456986</v>
-      </c>
-      <c r="C520" t="s">
-        <v>11</v>
-      </c>
-      <c r="D520" t="s">
+      <c r="E520" t="s">
         <v>2003</v>
       </c>
-      <c r="E520" t="s">
-        <v>1259</v>
-      </c>
       <c r="F520" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G520" t="s">
         <v>2004</v>
@@ -26279,7 +26267,7 @@
         <v>2005</v>
       </c>
       <c r="B521">
-        <v>13940127910</v>
+        <v>13940067223</v>
       </c>
       <c r="C521" t="s">
         <v>11</v>
@@ -26311,7 +26299,7 @@
         <v>2009</v>
       </c>
       <c r="B522">
-        <v>13940067223</v>
+        <v>13998839493</v>
       </c>
       <c r="C522" t="s">
         <v>11</v>
@@ -26343,7 +26331,7 @@
         <v>2013</v>
       </c>
       <c r="B523">
-        <v>13998839493</v>
+        <v>18842497788</v>
       </c>
       <c r="C523" t="s">
         <v>11</v>
@@ -26375,7 +26363,7 @@
         <v>2017</v>
       </c>
       <c r="B524">
-        <v>18842497788</v>
+        <v>15140196713</v>
       </c>
       <c r="C524" t="s">
         <v>11</v>
@@ -26407,7 +26395,7 @@
         <v>2021</v>
       </c>
       <c r="B525">
-        <v>15140196713</v>
+        <v>13940236091</v>
       </c>
       <c r="C525" t="s">
         <v>11</v>
@@ -26439,7 +26427,7 @@
         <v>2025</v>
       </c>
       <c r="B526">
-        <v>13940236091</v>
+        <v>18904015277</v>
       </c>
       <c r="C526" t="s">
         <v>11</v>
@@ -26451,7 +26439,7 @@
         <v>2027</v>
       </c>
       <c r="F526" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G526" t="s">
         <v>2028</v>
@@ -26471,7 +26459,7 @@
         <v>2029</v>
       </c>
       <c r="B527">
-        <v>18904015277</v>
+        <v>13889877865</v>
       </c>
       <c r="C527" t="s">
         <v>11</v>
@@ -26483,7 +26471,7 @@
         <v>2031</v>
       </c>
       <c r="F527" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G527" t="s">
         <v>2032</v>
@@ -26495,7 +26483,7 @@
         <v>17</v>
       </c>
       <c r="J527" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="528" spans="1:10">
@@ -26503,7 +26491,7 @@
         <v>2033</v>
       </c>
       <c r="B528">
-        <v>13889877865</v>
+        <v>13555778122</v>
       </c>
       <c r="C528" t="s">
         <v>11</v>
@@ -26527,7 +26515,7 @@
         <v>17</v>
       </c>
       <c r="J528" t="s">
-        <v>87</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="529" spans="1:10">
@@ -26535,7 +26523,7 @@
         <v>2037</v>
       </c>
       <c r="B529">
-        <v>13555778122</v>
+        <v>13840098728</v>
       </c>
       <c r="C529" t="s">
         <v>11</v>
@@ -26559,7 +26547,7 @@
         <v>17</v>
       </c>
       <c r="J529" t="s">
-        <v>1473</v>
+        <v>87</v>
       </c>
     </row>
     <row r="530" spans="1:10">
@@ -26567,7 +26555,7 @@
         <v>2041</v>
       </c>
       <c r="B530">
-        <v>13840098728</v>
+        <v>13555710371</v>
       </c>
       <c r="C530" t="s">
         <v>11</v>
@@ -26591,7 +26579,7 @@
         <v>17</v>
       </c>
       <c r="J530" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="531" spans="1:10">
@@ -26599,7 +26587,7 @@
         <v>2045</v>
       </c>
       <c r="B531">
-        <v>13555710371</v>
+        <v>13555889676</v>
       </c>
       <c r="C531" t="s">
         <v>11</v>
@@ -26608,13 +26596,13 @@
         <v>2046</v>
       </c>
       <c r="E531" t="s">
-        <v>2047</v>
+        <v>895</v>
       </c>
       <c r="F531" t="s">
         <v>14</v>
       </c>
       <c r="G531" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="H531" t="s">
         <v>16</v>
@@ -26628,25 +26616,25 @@
     </row>
     <row r="532" spans="1:10">
       <c r="A532" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B532">
+        <v>13998277992</v>
+      </c>
+      <c r="C532" t="s">
+        <v>11</v>
+      </c>
+      <c r="D532" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E532" t="s">
         <v>2049</v>
       </c>
-      <c r="B532">
-        <v>13555889676</v>
-      </c>
-      <c r="C532" t="s">
-        <v>11</v>
-      </c>
-      <c r="D532" t="s">
+      <c r="F532" t="s">
+        <v>14</v>
+      </c>
+      <c r="G532" t="s">
         <v>2050</v>
-      </c>
-      <c r="E532" t="s">
-        <v>895</v>
-      </c>
-      <c r="F532" t="s">
-        <v>14</v>
-      </c>
-      <c r="G532" t="s">
-        <v>2048</v>
       </c>
       <c r="H532" t="s">
         <v>16</v>
@@ -26663,7 +26651,7 @@
         <v>2051</v>
       </c>
       <c r="B533">
-        <v>13998277992</v>
+        <v>13897952388</v>
       </c>
       <c r="C533" t="s">
         <v>11</v>
@@ -26695,7 +26683,7 @@
         <v>2055</v>
       </c>
       <c r="B534">
-        <v>13897952388</v>
+        <v>13998355326</v>
       </c>
       <c r="C534" t="s">
         <v>11</v>
@@ -26710,7 +26698,7 @@
         <v>14</v>
       </c>
       <c r="G534" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="H534" t="s">
         <v>16</v>
@@ -26724,25 +26712,25 @@
     </row>
     <row r="535" spans="1:10">
       <c r="A535" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B535">
+        <v>13804974531</v>
+      </c>
+      <c r="C535" t="s">
+        <v>11</v>
+      </c>
+      <c r="D535" t="s">
         <v>2059</v>
       </c>
-      <c r="B535">
-        <v>13998355326</v>
-      </c>
-      <c r="C535" t="s">
-        <v>11</v>
-      </c>
-      <c r="D535" t="s">
+      <c r="E535" t="s">
         <v>2060</v>
       </c>
-      <c r="E535" t="s">
+      <c r="F535" t="s">
+        <v>14</v>
+      </c>
+      <c r="G535" t="s">
         <v>2061</v>
-      </c>
-      <c r="F535" t="s">
-        <v>14</v>
-      </c>
-      <c r="G535" t="s">
-        <v>2058</v>
       </c>
       <c r="H535" t="s">
         <v>16</v>
@@ -26759,12 +26747,12 @@
         <v>2062</v>
       </c>
       <c r="B536">
-        <v>13804974531</v>
+        <v>13190060390</v>
       </c>
       <c r="C536" t="s">
         <v>11</v>
       </c>
-      <c r="D536" t="s">
+      <c r="D536" s="6" t="s">
         <v>2063</v>
       </c>
       <c r="E536" t="s">
@@ -26791,19 +26779,19 @@
         <v>2066</v>
       </c>
       <c r="B537">
-        <v>13190060390</v>
+        <v>18809802743</v>
       </c>
       <c r="C537" t="s">
         <v>11</v>
       </c>
-      <c r="D537" s="6" t="s">
+      <c r="D537" t="s">
         <v>2067</v>
       </c>
       <c r="E537" t="s">
         <v>2068</v>
       </c>
       <c r="F537" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G537" t="s">
         <v>2069</v>
@@ -26823,7 +26811,7 @@
         <v>2070</v>
       </c>
       <c r="B538">
-        <v>18809802743</v>
+        <v>15242868148</v>
       </c>
       <c r="C538" t="s">
         <v>11</v>
@@ -26838,7 +26826,7 @@
         <v>48</v>
       </c>
       <c r="G538" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="H538" t="s">
         <v>16</v>
@@ -26852,25 +26840,25 @@
     </row>
     <row r="539" spans="1:10">
       <c r="A539" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B539">
+        <v>13998867010</v>
+      </c>
+      <c r="C539" t="s">
+        <v>11</v>
+      </c>
+      <c r="D539" t="s">
         <v>2074</v>
       </c>
-      <c r="B539">
-        <v>15242868148</v>
-      </c>
-      <c r="C539" t="s">
-        <v>11</v>
-      </c>
-      <c r="D539" t="s">
+      <c r="E539" t="s">
         <v>2075</v>
       </c>
-      <c r="E539" t="s">
-        <v>2076</v>
-      </c>
       <c r="F539" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G539" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="H539" t="s">
         <v>16</v>
@@ -26884,25 +26872,25 @@
     </row>
     <row r="540" spans="1:10">
       <c r="A540" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B540">
+        <v>13664159219</v>
+      </c>
+      <c r="C540" t="s">
+        <v>11</v>
+      </c>
+      <c r="D540" t="s">
         <v>2077</v>
       </c>
-      <c r="B540">
-        <v>13998867010</v>
-      </c>
-      <c r="C540" t="s">
-        <v>11</v>
-      </c>
-      <c r="D540" t="s">
+      <c r="E540" t="s">
         <v>2078</v>
       </c>
-      <c r="E540" t="s">
+      <c r="F540" t="s">
+        <v>14</v>
+      </c>
+      <c r="G540" t="s">
         <v>2079</v>
-      </c>
-      <c r="F540" t="s">
-        <v>14</v>
-      </c>
-      <c r="G540" t="s">
-        <v>2073</v>
       </c>
       <c r="H540" t="s">
         <v>16</v>
@@ -26919,7 +26907,7 @@
         <v>2080</v>
       </c>
       <c r="B541">
-        <v>13664159219</v>
+        <v>13940427834</v>
       </c>
       <c r="C541" t="s">
         <v>11</v>
@@ -26928,13 +26916,13 @@
         <v>2081</v>
       </c>
       <c r="E541" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F541" t="s">
+        <v>14</v>
+      </c>
+      <c r="G541" t="s">
         <v>2082</v>
-      </c>
-      <c r="F541" t="s">
-        <v>14</v>
-      </c>
-      <c r="G541" t="s">
-        <v>2083</v>
       </c>
       <c r="H541" t="s">
         <v>16</v>
@@ -26948,22 +26936,22 @@
     </row>
     <row r="542" spans="1:10">
       <c r="A542" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B542">
+        <v>15241352785</v>
+      </c>
+      <c r="C542" t="s">
+        <v>11</v>
+      </c>
+      <c r="D542" t="s">
         <v>2084</v>
       </c>
-      <c r="B542">
-        <v>13940427834</v>
-      </c>
-      <c r="C542" t="s">
-        <v>11</v>
-      </c>
-      <c r="D542" t="s">
+      <c r="E542" t="s">
         <v>2085</v>
       </c>
-      <c r="E542" t="s">
-        <v>1925</v>
-      </c>
       <c r="F542" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G542" t="s">
         <v>2086</v>
@@ -26983,7 +26971,7 @@
         <v>2087</v>
       </c>
       <c r="B543">
-        <v>15241352785</v>
+        <v>13840583705</v>
       </c>
       <c r="C543" t="s">
         <v>11</v>
@@ -26995,10 +26983,10 @@
         <v>2089</v>
       </c>
       <c r="F543" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G543" t="s">
-        <v>2090</v>
+        <v>2050</v>
       </c>
       <c r="H543" t="s">
         <v>16</v>
@@ -27012,25 +27000,25 @@
     </row>
     <row r="544" spans="1:10">
       <c r="A544" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B544">
+        <v>13998156865</v>
+      </c>
+      <c r="C544" t="s">
+        <v>11</v>
+      </c>
+      <c r="D544" t="s">
         <v>2091</v>
       </c>
-      <c r="B544">
-        <v>13840583705</v>
-      </c>
-      <c r="C544" t="s">
-        <v>11</v>
-      </c>
-      <c r="D544" t="s">
+      <c r="E544" t="s">
         <v>2092</v>
       </c>
-      <c r="E544" t="s">
-        <v>2093</v>
-      </c>
       <c r="F544" t="s">
         <v>14</v>
       </c>
       <c r="G544" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
       <c r="H544" t="s">
         <v>16</v>
@@ -27044,25 +27032,25 @@
     </row>
     <row r="545" spans="1:10">
       <c r="A545" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B545">
+        <v>13470001913</v>
+      </c>
+      <c r="C545" t="s">
+        <v>11</v>
+      </c>
+      <c r="D545" t="s">
         <v>2094</v>
       </c>
-      <c r="B545">
-        <v>13998156865</v>
-      </c>
-      <c r="C545" t="s">
-        <v>11</v>
-      </c>
-      <c r="D545" t="s">
+      <c r="E545" t="s">
         <v>2095</v>
       </c>
-      <c r="E545" t="s">
-        <v>2096</v>
-      </c>
       <c r="F545" t="s">
         <v>14</v>
       </c>
       <c r="G545" t="s">
-        <v>2054</v>
+        <v>2061</v>
       </c>
       <c r="H545" t="s">
         <v>16</v>
@@ -27076,25 +27064,25 @@
     </row>
     <row r="546" spans="1:10">
       <c r="A546" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B546">
+        <v>13842081766</v>
+      </c>
+      <c r="C546" t="s">
+        <v>11</v>
+      </c>
+      <c r="D546" t="s">
         <v>2097</v>
       </c>
-      <c r="B546">
-        <v>13470001913</v>
-      </c>
-      <c r="C546" t="s">
-        <v>11</v>
-      </c>
-      <c r="D546" t="s">
+      <c r="E546" t="s">
         <v>2098</v>
       </c>
-      <c r="E546" t="s">
-        <v>2099</v>
-      </c>
       <c r="F546" t="s">
         <v>14</v>
       </c>
       <c r="G546" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="H546" t="s">
         <v>16</v>
@@ -27108,25 +27096,25 @@
     </row>
     <row r="547" spans="1:10">
       <c r="A547" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B547">
+        <v>15309880789</v>
+      </c>
+      <c r="C547" t="s">
+        <v>11</v>
+      </c>
+      <c r="D547" t="s">
         <v>2100</v>
       </c>
-      <c r="B547">
-        <v>13842081766</v>
-      </c>
-      <c r="C547" t="s">
-        <v>11</v>
-      </c>
-      <c r="D547" t="s">
+      <c r="E547" t="s">
         <v>2101</v>
       </c>
-      <c r="E547" t="s">
-        <v>2102</v>
-      </c>
       <c r="F547" t="s">
         <v>14</v>
       </c>
       <c r="G547" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="H547" t="s">
         <v>16</v>
@@ -27140,25 +27128,25 @@
     </row>
     <row r="548" spans="1:10">
       <c r="A548" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B548">
+        <v>15941198183</v>
+      </c>
+      <c r="C548" t="s">
+        <v>11</v>
+      </c>
+      <c r="D548" t="s">
         <v>2103</v>
       </c>
-      <c r="B548">
-        <v>15309880789</v>
-      </c>
-      <c r="C548" t="s">
-        <v>11</v>
-      </c>
-      <c r="D548" t="s">
+      <c r="E548" t="s">
         <v>2104</v>
       </c>
-      <c r="E548" t="s">
+      <c r="F548" t="s">
+        <v>14</v>
+      </c>
+      <c r="G548" t="s">
         <v>2105</v>
-      </c>
-      <c r="F548" t="s">
-        <v>14</v>
-      </c>
-      <c r="G548" t="s">
-        <v>2065</v>
       </c>
       <c r="H548" t="s">
         <v>16</v>
@@ -27175,7 +27163,7 @@
         <v>2106</v>
       </c>
       <c r="B549">
-        <v>15941198183</v>
+        <v>15904022216</v>
       </c>
       <c r="C549" t="s">
         <v>11</v>
@@ -27207,7 +27195,7 @@
         <v>2110</v>
       </c>
       <c r="B550">
-        <v>15904022216</v>
+        <v>13386863304</v>
       </c>
       <c r="C550" t="s">
         <v>11</v>
@@ -27216,13 +27204,13 @@
         <v>2111</v>
       </c>
       <c r="E550" t="s">
+        <v>883</v>
+      </c>
+      <c r="F550" t="s">
+        <v>14</v>
+      </c>
+      <c r="G550" t="s">
         <v>2112</v>
-      </c>
-      <c r="F550" t="s">
-        <v>14</v>
-      </c>
-      <c r="G550" t="s">
-        <v>2113</v>
       </c>
       <c r="H550" t="s">
         <v>16</v>
@@ -27236,25 +27224,25 @@
     </row>
     <row r="551" spans="1:10">
       <c r="A551" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B551">
+        <v>15640236906</v>
+      </c>
+      <c r="C551" t="s">
+        <v>11</v>
+      </c>
+      <c r="D551" t="s">
         <v>2114</v>
       </c>
-      <c r="B551">
-        <v>13386863304</v>
-      </c>
-      <c r="C551" t="s">
-        <v>11</v>
-      </c>
-      <c r="D551" t="s">
+      <c r="E551" t="s">
         <v>2115</v>
       </c>
-      <c r="E551" t="s">
-        <v>883</v>
-      </c>
       <c r="F551" t="s">
         <v>14</v>
       </c>
       <c r="G551" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="H551" t="s">
         <v>16</v>
@@ -27268,26 +27256,26 @@
     </row>
     <row r="552" spans="1:10">
       <c r="A552" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B552">
+        <v>18900969906</v>
+      </c>
+      <c r="C552" t="s">
+        <v>11</v>
+      </c>
+      <c r="D552" t="s">
         <v>2117</v>
       </c>
-      <c r="B552">
-        <v>15640236906</v>
-      </c>
-      <c r="C552" t="s">
-        <v>11</v>
-      </c>
-      <c r="D552" t="s">
+      <c r="E552" t="s">
         <v>2118</v>
       </c>
-      <c r="E552" t="s">
+      <c r="F552" t="s">
+        <v>14</v>
+      </c>
+      <c r="G552" t="s">
         <v>2119</v>
       </c>
-      <c r="F552" t="s">
-        <v>14</v>
-      </c>
-      <c r="G552" t="s">
-        <v>2116</v>
-      </c>
       <c r="H552" t="s">
         <v>16</v>
       </c>
@@ -27295,7 +27283,7 @@
         <v>17</v>
       </c>
       <c r="J552" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="553" spans="1:10">
@@ -27303,7 +27291,7 @@
         <v>2120</v>
       </c>
       <c r="B553">
-        <v>18900969906</v>
+        <v>13130222967</v>
       </c>
       <c r="C553" t="s">
         <v>11</v>
@@ -27315,7 +27303,7 @@
         <v>2122</v>
       </c>
       <c r="F553" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G553" t="s">
         <v>2123</v>
@@ -27327,7 +27315,7 @@
         <v>17</v>
       </c>
       <c r="J553" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="554" spans="1:10">
@@ -27335,7 +27323,7 @@
         <v>2124</v>
       </c>
       <c r="B554">
-        <v>13130222967</v>
+        <v>13909832769</v>
       </c>
       <c r="C554" t="s">
         <v>11</v>
@@ -27347,7 +27335,7 @@
         <v>2126</v>
       </c>
       <c r="F554" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G554" t="s">
         <v>2127</v>
@@ -27359,7 +27347,7 @@
         <v>17</v>
       </c>
       <c r="J554" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="555" spans="1:10">
@@ -27367,7 +27355,7 @@
         <v>2128</v>
       </c>
       <c r="B555">
-        <v>13909832769</v>
+        <v>15147682896</v>
       </c>
       <c r="C555" t="s">
         <v>11</v>
@@ -27391,7 +27379,7 @@
         <v>17</v>
       </c>
       <c r="J555" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="556" spans="1:10">
@@ -27399,7 +27387,7 @@
         <v>2132</v>
       </c>
       <c r="B556">
-        <v>15147682896</v>
+        <v>17640279129</v>
       </c>
       <c r="C556" t="s">
         <v>11</v>
@@ -27414,7 +27402,7 @@
         <v>14</v>
       </c>
       <c r="G556" t="s">
-        <v>2135</v>
+        <v>2131</v>
       </c>
       <c r="H556" t="s">
         <v>16</v>
@@ -27428,25 +27416,25 @@
     </row>
     <row r="557" spans="1:10">
       <c r="A557" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B557">
+        <v>13604077632</v>
+      </c>
+      <c r="C557" t="s">
+        <v>11</v>
+      </c>
+      <c r="D557" t="s">
         <v>2136</v>
       </c>
-      <c r="B557">
-        <v>17640279129</v>
-      </c>
-      <c r="C557" t="s">
-        <v>11</v>
-      </c>
-      <c r="D557" t="s">
+      <c r="E557" t="s">
         <v>2137</v>
       </c>
-      <c r="E557" t="s">
+      <c r="F557" t="s">
+        <v>14</v>
+      </c>
+      <c r="G557" t="s">
         <v>2138</v>
-      </c>
-      <c r="F557" t="s">
-        <v>14</v>
-      </c>
-      <c r="G557" t="s">
-        <v>2135</v>
       </c>
       <c r="H557" t="s">
         <v>16</v>
@@ -27463,7 +27451,7 @@
         <v>2139</v>
       </c>
       <c r="B558">
-        <v>13604077632</v>
+        <v>13478856335</v>
       </c>
       <c r="C558" t="s">
         <v>11</v>
@@ -27495,7 +27483,7 @@
         <v>2143</v>
       </c>
       <c r="B559">
-        <v>13478856335</v>
+        <v>15541908255</v>
       </c>
       <c r="C559" t="s">
         <v>11</v>
@@ -27519,7 +27507,7 @@
         <v>17</v>
       </c>
       <c r="J559" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="560" spans="1:10">
@@ -27527,7 +27515,7 @@
         <v>2147</v>
       </c>
       <c r="B560">
-        <v>15541908255</v>
+        <v>15940032299</v>
       </c>
       <c r="C560" t="s">
         <v>11</v>
@@ -27551,7 +27539,7 @@
         <v>17</v>
       </c>
       <c r="J560" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="561" spans="1:10">
@@ -27559,7 +27547,7 @@
         <v>2151</v>
       </c>
       <c r="B561">
-        <v>15940032299</v>
+        <v>15041218822</v>
       </c>
       <c r="C561" t="s">
         <v>11</v>
@@ -27571,7 +27559,7 @@
         <v>2153</v>
       </c>
       <c r="F561" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G561" t="s">
         <v>2154</v>
@@ -27591,7 +27579,7 @@
         <v>2155</v>
       </c>
       <c r="B562">
-        <v>15041218822</v>
+        <v>13840229225</v>
       </c>
       <c r="C562" t="s">
         <v>11</v>
@@ -27603,7 +27591,7 @@
         <v>2157</v>
       </c>
       <c r="F562" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G562" t="s">
         <v>2158</v>
@@ -27623,7 +27611,7 @@
         <v>2159</v>
       </c>
       <c r="B563">
-        <v>13840229225</v>
+        <v>18640095893</v>
       </c>
       <c r="C563" t="s">
         <v>11</v>
@@ -27652,25 +27640,25 @@
     </row>
     <row r="564" spans="1:10">
       <c r="A564" t="s">
+        <v>124</v>
+      </c>
+      <c r="B564">
+        <v>15541974318</v>
+      </c>
+      <c r="C564" t="s">
+        <v>11</v>
+      </c>
+      <c r="D564" t="s">
         <v>2163</v>
       </c>
-      <c r="B564">
-        <v>18640095893</v>
-      </c>
-      <c r="C564" t="s">
-        <v>11</v>
-      </c>
-      <c r="D564" t="s">
+      <c r="E564" t="s">
         <v>2164</v>
       </c>
-      <c r="E564" t="s">
+      <c r="F564" t="s">
+        <v>14</v>
+      </c>
+      <c r="G564" t="s">
         <v>2165</v>
-      </c>
-      <c r="F564" t="s">
-        <v>14</v>
-      </c>
-      <c r="G564" t="s">
-        <v>2166</v>
       </c>
       <c r="H564" t="s">
         <v>16</v>
@@ -27684,10 +27672,10 @@
     </row>
     <row r="565" spans="1:10">
       <c r="A565" t="s">
-        <v>124</v>
+        <v>2166</v>
       </c>
       <c r="B565">
-        <v>15541974318</v>
+        <v>13840037439</v>
       </c>
       <c r="C565" t="s">
         <v>11</v>
@@ -27711,7 +27699,7 @@
         <v>17</v>
       </c>
       <c r="J565" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="566" spans="1:10">
@@ -27719,7 +27707,7 @@
         <v>2170</v>
       </c>
       <c r="B566">
-        <v>13840037439</v>
+        <v>13998306065</v>
       </c>
       <c r="C566" t="s">
         <v>11</v>
@@ -27728,13 +27716,13 @@
         <v>2171</v>
       </c>
       <c r="E566" t="s">
+        <v>774</v>
+      </c>
+      <c r="F566" t="s">
+        <v>14</v>
+      </c>
+      <c r="G566" t="s">
         <v>2172</v>
-      </c>
-      <c r="F566" t="s">
-        <v>14</v>
-      </c>
-      <c r="G566" t="s">
-        <v>2173</v>
       </c>
       <c r="H566" t="s">
         <v>16</v>
@@ -27748,19 +27736,19 @@
     </row>
     <row r="567" spans="1:10">
       <c r="A567" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B567">
+        <v>18842511877</v>
+      </c>
+      <c r="C567" t="s">
+        <v>11</v>
+      </c>
+      <c r="D567" t="s">
         <v>2174</v>
       </c>
-      <c r="B567">
-        <v>13998306065</v>
-      </c>
-      <c r="C567" t="s">
-        <v>11</v>
-      </c>
-      <c r="D567" t="s">
+      <c r="E567" t="s">
         <v>2175</v>
-      </c>
-      <c r="E567" t="s">
-        <v>774</v>
       </c>
       <c r="F567" t="s">
         <v>14</v>
@@ -27783,7 +27771,7 @@
         <v>2177</v>
       </c>
       <c r="B568">
-        <v>18842511877</v>
+        <v>13079289825</v>
       </c>
       <c r="C568" t="s">
         <v>11</v>
@@ -27815,7 +27803,7 @@
         <v>2181</v>
       </c>
       <c r="B569">
-        <v>13079289825</v>
+        <v>13842089730</v>
       </c>
       <c r="C569" t="s">
         <v>11</v>
@@ -27827,7 +27815,7 @@
         <v>2183</v>
       </c>
       <c r="F569" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G569" t="s">
         <v>2184</v>
@@ -27847,7 +27835,7 @@
         <v>2185</v>
       </c>
       <c r="B570">
-        <v>13842089730</v>
+        <v>13941667389</v>
       </c>
       <c r="C570" t="s">
         <v>11</v>
@@ -27859,7 +27847,7 @@
         <v>2187</v>
       </c>
       <c r="F570" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G570" t="s">
         <v>2188</v>
@@ -27879,7 +27867,7 @@
         <v>2189</v>
       </c>
       <c r="B571">
-        <v>13941667389</v>
+        <v>15840185399</v>
       </c>
       <c r="C571" t="s">
         <v>11</v>
@@ -27911,7 +27899,7 @@
         <v>2193</v>
       </c>
       <c r="B572">
-        <v>15840185399</v>
+        <v>13898153265</v>
       </c>
       <c r="C572" t="s">
         <v>11</v>
@@ -27943,7 +27931,7 @@
         <v>2197</v>
       </c>
       <c r="B573">
-        <v>13898153265</v>
+        <v>13002491910</v>
       </c>
       <c r="C573" t="s">
         <v>11</v>
@@ -27975,7 +27963,7 @@
         <v>2201</v>
       </c>
       <c r="B574">
-        <v>13002491910</v>
+        <v>15032376453</v>
       </c>
       <c r="C574" t="s">
         <v>11</v>
@@ -28007,7 +27995,7 @@
         <v>2205</v>
       </c>
       <c r="B575">
-        <v>15032376453</v>
+        <v>13889284108</v>
       </c>
       <c r="C575" t="s">
         <v>11</v>
@@ -28016,13 +28004,13 @@
         <v>2206</v>
       </c>
       <c r="E575" t="s">
+        <v>68</v>
+      </c>
+      <c r="F575" t="s">
+        <v>14</v>
+      </c>
+      <c r="G575" t="s">
         <v>2207</v>
-      </c>
-      <c r="F575" t="s">
-        <v>14</v>
-      </c>
-      <c r="G575" t="s">
-        <v>2208</v>
       </c>
       <c r="H575" t="s">
         <v>16</v>
@@ -28036,19 +28024,19 @@
     </row>
     <row r="576" spans="1:10">
       <c r="A576" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B576">
+        <v>15924540944</v>
+      </c>
+      <c r="C576" t="s">
+        <v>11</v>
+      </c>
+      <c r="D576" t="s">
         <v>2209</v>
       </c>
-      <c r="B576">
-        <v>13889284108</v>
-      </c>
-      <c r="C576" t="s">
-        <v>11</v>
-      </c>
-      <c r="D576" t="s">
+      <c r="E576" t="s">
         <v>2210</v>
-      </c>
-      <c r="E576" t="s">
-        <v>68</v>
       </c>
       <c r="F576" t="s">
         <v>14</v>
@@ -28071,7 +28059,7 @@
         <v>2212</v>
       </c>
       <c r="B577">
-        <v>15924540944</v>
+        <v>15541935590</v>
       </c>
       <c r="C577" t="s">
         <v>11</v>
@@ -28103,7 +28091,7 @@
         <v>2216</v>
       </c>
       <c r="B578">
-        <v>15541935590</v>
+        <v>13898837647</v>
       </c>
       <c r="C578" t="s">
         <v>11</v>
@@ -28135,7 +28123,7 @@
         <v>2220</v>
       </c>
       <c r="B579">
-        <v>13898837647</v>
+        <v>13840038783</v>
       </c>
       <c r="C579" t="s">
         <v>11</v>
@@ -28167,7 +28155,7 @@
         <v>2224</v>
       </c>
       <c r="B580">
-        <v>13840038783</v>
+        <v>13889206716</v>
       </c>
       <c r="C580" t="s">
         <v>11</v>
@@ -28199,7 +28187,7 @@
         <v>2228</v>
       </c>
       <c r="B581">
-        <v>13889206716</v>
+        <v>15524021701</v>
       </c>
       <c r="C581" t="s">
         <v>11</v>
@@ -28231,7 +28219,7 @@
         <v>2232</v>
       </c>
       <c r="B582">
-        <v>15524021701</v>
+        <v>18804062101</v>
       </c>
       <c r="C582" t="s">
         <v>11</v>
@@ -28263,7 +28251,7 @@
         <v>2236</v>
       </c>
       <c r="B583">
-        <v>18804062101</v>
+        <v>18704043173</v>
       </c>
       <c r="C583" t="s">
         <v>11</v>
@@ -28295,7 +28283,7 @@
         <v>2240</v>
       </c>
       <c r="B584">
-        <v>18704043173</v>
+        <v>13840401640</v>
       </c>
       <c r="C584" t="s">
         <v>11</v>
@@ -28327,7 +28315,7 @@
         <v>2244</v>
       </c>
       <c r="B585">
-        <v>13840401640</v>
+        <v>13019305098</v>
       </c>
       <c r="C585" t="s">
         <v>11</v>
@@ -28359,7 +28347,7 @@
         <v>2248</v>
       </c>
       <c r="B586">
-        <v>13019305098</v>
+        <v>15524546300</v>
       </c>
       <c r="C586" t="s">
         <v>11</v>
@@ -28371,7 +28359,7 @@
         <v>2250</v>
       </c>
       <c r="F586" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G586" t="s">
         <v>2251</v>
@@ -28391,7 +28379,7 @@
         <v>2252</v>
       </c>
       <c r="B587">
-        <v>15524546300</v>
+        <v>18941633606</v>
       </c>
       <c r="C587" t="s">
         <v>11</v>
@@ -28423,7 +28411,7 @@
         <v>2256</v>
       </c>
       <c r="B588">
-        <v>18941633606</v>
+        <v>13940223126</v>
       </c>
       <c r="C588" t="s">
         <v>11</v>
@@ -28435,7 +28423,7 @@
         <v>2258</v>
       </c>
       <c r="F588" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G588" t="s">
         <v>2259</v>
@@ -28455,7 +28443,7 @@
         <v>2260</v>
       </c>
       <c r="B589">
-        <v>13940223126</v>
+        <v>15902408920</v>
       </c>
       <c r="C589" t="s">
         <v>11</v>
@@ -28487,12 +28475,12 @@
         <v>2264</v>
       </c>
       <c r="B590">
-        <v>15902408920</v>
+        <v>15242068291</v>
       </c>
       <c r="C590" t="s">
         <v>11</v>
       </c>
-      <c r="D590" t="s">
+      <c r="D590" s="6" t="s">
         <v>2265</v>
       </c>
       <c r="E590" t="s">
@@ -28519,12 +28507,12 @@
         <v>2268</v>
       </c>
       <c r="B591">
-        <v>15242068291</v>
+        <v>13804901787</v>
       </c>
       <c r="C591" t="s">
         <v>11</v>
       </c>
-      <c r="D591" s="6" t="s">
+      <c r="D591" t="s">
         <v>2269</v>
       </c>
       <c r="E591" t="s">
@@ -28551,7 +28539,7 @@
         <v>2272</v>
       </c>
       <c r="B592">
-        <v>13804901787</v>
+        <v>18904089039</v>
       </c>
       <c r="C592" t="s">
         <v>11</v>
@@ -28583,7 +28571,7 @@
         <v>2276</v>
       </c>
       <c r="B593">
-        <v>18904089039</v>
+        <v>18540168116</v>
       </c>
       <c r="C593" t="s">
         <v>11</v>
@@ -28615,7 +28603,7 @@
         <v>2280</v>
       </c>
       <c r="B594">
-        <v>18540168116</v>
+        <v>13940467911</v>
       </c>
       <c r="C594" t="s">
         <v>11</v>
@@ -28647,7 +28635,7 @@
         <v>2284</v>
       </c>
       <c r="B595">
-        <v>13940467911</v>
+        <v>15204088955</v>
       </c>
       <c r="C595" t="s">
         <v>11</v>
@@ -28659,7 +28647,7 @@
         <v>2286</v>
       </c>
       <c r="F595" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G595" t="s">
         <v>2287</v>
@@ -28679,7 +28667,7 @@
         <v>2288</v>
       </c>
       <c r="B596">
-        <v>15204088955</v>
+        <v>18640326210</v>
       </c>
       <c r="C596" t="s">
         <v>11</v>
@@ -28691,7 +28679,7 @@
         <v>2290</v>
       </c>
       <c r="F596" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G596" t="s">
         <v>2291</v>
@@ -28711,7 +28699,7 @@
         <v>2292</v>
       </c>
       <c r="B597">
-        <v>18640326210</v>
+        <v>13940372598</v>
       </c>
       <c r="C597" t="s">
         <v>11</v>
@@ -28743,7 +28731,7 @@
         <v>2296</v>
       </c>
       <c r="B598">
-        <v>13940372598</v>
+        <v>17640283704</v>
       </c>
       <c r="C598" t="s">
         <v>11</v>
@@ -28755,7 +28743,7 @@
         <v>2298</v>
       </c>
       <c r="F598" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G598" t="s">
         <v>2299</v>
@@ -28775,19 +28763,19 @@
         <v>2300</v>
       </c>
       <c r="B599">
-        <v>17640283704</v>
+        <v>13609810343</v>
       </c>
       <c r="C599" t="s">
         <v>11</v>
       </c>
-      <c r="D599" t="s">
+      <c r="D599" s="6" t="s">
         <v>2301</v>
       </c>
       <c r="E599" t="s">
         <v>2302</v>
       </c>
       <c r="F599" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G599" t="s">
         <v>2303</v>
@@ -28807,12 +28795,12 @@
         <v>2304</v>
       </c>
       <c r="B600">
-        <v>13609810343</v>
+        <v>15640217930</v>
       </c>
       <c r="C600" t="s">
         <v>11</v>
       </c>
-      <c r="D600" s="6" t="s">
+      <c r="D600" t="s">
         <v>2305</v>
       </c>
       <c r="E600" t="s">
@@ -28839,7 +28827,7 @@
         <v>2308</v>
       </c>
       <c r="B601">
-        <v>15640217930</v>
+        <v>15734088809</v>
       </c>
       <c r="C601" t="s">
         <v>11</v>
@@ -28871,7 +28859,7 @@
         <v>2312</v>
       </c>
       <c r="B602">
-        <v>15734088809</v>
+        <v>13664182972</v>
       </c>
       <c r="C602" t="s">
         <v>11</v>
@@ -28903,7 +28891,7 @@
         <v>2316</v>
       </c>
       <c r="B603">
-        <v>13664182972</v>
+        <v>13889880964</v>
       </c>
       <c r="C603" t="s">
         <v>11</v>
@@ -28935,7 +28923,7 @@
         <v>2320</v>
       </c>
       <c r="B604">
-        <v>13889880964</v>
+        <v>13214262261</v>
       </c>
       <c r="C604" t="s">
         <v>11</v>
@@ -28947,7 +28935,7 @@
         <v>2322</v>
       </c>
       <c r="F604" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G604" t="s">
         <v>2323</v>
@@ -28964,25 +28952,25 @@
     </row>
     <row r="605" spans="1:10">
       <c r="A605" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B605">
+        <v>13940570335</v>
+      </c>
+      <c r="C605" t="s">
+        <v>11</v>
+      </c>
+      <c r="D605" t="s">
         <v>2324</v>
       </c>
-      <c r="B605">
-        <v>13214262261</v>
-      </c>
-      <c r="C605" t="s">
-        <v>11</v>
-      </c>
-      <c r="D605" t="s">
+      <c r="E605" t="s">
         <v>2325</v>
       </c>
-      <c r="E605" t="s">
+      <c r="F605" t="s">
+        <v>14</v>
+      </c>
+      <c r="G605" t="s">
         <v>2326</v>
-      </c>
-      <c r="F605" t="s">
-        <v>48</v>
-      </c>
-      <c r="G605" t="s">
-        <v>2327</v>
       </c>
       <c r="H605" t="s">
         <v>16</v>
@@ -28996,10 +28984,10 @@
     </row>
     <row r="606" spans="1:10">
       <c r="A606" t="s">
-        <v>2059</v>
+        <v>2327</v>
       </c>
       <c r="B606">
-        <v>13940570335</v>
+        <v>18604035306</v>
       </c>
       <c r="C606" t="s">
         <v>11</v>
@@ -29031,7 +29019,7 @@
         <v>2331</v>
       </c>
       <c r="B607">
-        <v>18604035306</v>
+        <v>15042665266</v>
       </c>
       <c r="C607" t="s">
         <v>11</v>
@@ -29063,7 +29051,7 @@
         <v>2335</v>
       </c>
       <c r="B608">
-        <v>15042665266</v>
+        <v>13940240520</v>
       </c>
       <c r="C608" t="s">
         <v>11</v>
@@ -29095,7 +29083,7 @@
         <v>2339</v>
       </c>
       <c r="B609">
-        <v>13940240520</v>
+        <v>18704032433</v>
       </c>
       <c r="C609" t="s">
         <v>11</v>
@@ -29127,7 +29115,7 @@
         <v>2343</v>
       </c>
       <c r="B610">
-        <v>18704032433</v>
+        <v>13898123998</v>
       </c>
       <c r="C610" t="s">
         <v>11</v>
@@ -29159,7 +29147,7 @@
         <v>2347</v>
       </c>
       <c r="B611">
-        <v>13898123998</v>
+        <v>13909811995</v>
       </c>
       <c r="C611" t="s">
         <v>11</v>
@@ -29191,7 +29179,7 @@
         <v>2351</v>
       </c>
       <c r="B612">
-        <v>13909811995</v>
+        <v>13188218377</v>
       </c>
       <c r="C612" t="s">
         <v>11</v>
@@ -29203,7 +29191,7 @@
         <v>2353</v>
       </c>
       <c r="F612" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G612" t="s">
         <v>2354</v>
@@ -29223,7 +29211,7 @@
         <v>2355</v>
       </c>
       <c r="B613">
-        <v>13188218377</v>
+        <v>13840529357</v>
       </c>
       <c r="C613" t="s">
         <v>11</v>
@@ -29235,7 +29223,7 @@
         <v>2357</v>
       </c>
       <c r="F613" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G613" t="s">
         <v>2358</v>
@@ -29255,7 +29243,7 @@
         <v>2359</v>
       </c>
       <c r="B614">
-        <v>13840529357</v>
+        <v>18642010616</v>
       </c>
       <c r="C614" t="s">
         <v>11</v>
@@ -29270,7 +29258,7 @@
         <v>14</v>
       </c>
       <c r="G614" t="s">
-        <v>2362</v>
+        <v>2358</v>
       </c>
       <c r="H614" t="s">
         <v>16</v>
@@ -29284,25 +29272,25 @@
     </row>
     <row r="615" spans="1:10">
       <c r="A615" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B615">
+        <v>13147903753</v>
+      </c>
+      <c r="C615" t="s">
+        <v>11</v>
+      </c>
+      <c r="D615" t="s">
         <v>2363</v>
       </c>
-      <c r="B615">
-        <v>18642010616</v>
-      </c>
-      <c r="C615" t="s">
-        <v>11</v>
-      </c>
-      <c r="D615" t="s">
+      <c r="E615" t="s">
         <v>2364</v>
       </c>
-      <c r="E615" t="s">
+      <c r="F615" t="s">
+        <v>14</v>
+      </c>
+      <c r="G615" t="s">
         <v>2365</v>
-      </c>
-      <c r="F615" t="s">
-        <v>14</v>
-      </c>
-      <c r="G615" t="s">
-        <v>2362</v>
       </c>
       <c r="H615" t="s">
         <v>16</v>
@@ -29319,7 +29307,7 @@
         <v>2366</v>
       </c>
       <c r="B616">
-        <v>13147903753</v>
+        <v>13897982868</v>
       </c>
       <c r="C616" t="s">
         <v>11</v>
@@ -29331,7 +29319,7 @@
         <v>2368</v>
       </c>
       <c r="F616" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G616" t="s">
         <v>2369</v>
@@ -29351,12 +29339,12 @@
         <v>2370</v>
       </c>
       <c r="B617">
-        <v>13897982868</v>
+        <v>13940390661</v>
       </c>
       <c r="C617" t="s">
         <v>11</v>
       </c>
-      <c r="D617" t="s">
+      <c r="D617" s="6" t="s">
         <v>2371</v>
       </c>
       <c r="E617" t="s">
@@ -29383,19 +29371,19 @@
         <v>2374</v>
       </c>
       <c r="B618">
-        <v>13940390661</v>
+        <v>15998258305</v>
       </c>
       <c r="C618" t="s">
         <v>11</v>
       </c>
-      <c r="D618" s="6" t="s">
+      <c r="D618" t="s">
         <v>2375</v>
       </c>
       <c r="E618" t="s">
         <v>2376</v>
       </c>
       <c r="F618" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G618" t="s">
         <v>2377</v>
@@ -29407,30 +29395,30 @@
         <v>17</v>
       </c>
       <c r="J618" t="s">
-        <v>106</v>
+        <v>248</v>
       </c>
     </row>
     <row r="619" spans="1:10">
       <c r="A619" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B619">
+        <v>15840480280</v>
+      </c>
+      <c r="C619" t="s">
+        <v>11</v>
+      </c>
+      <c r="D619" t="s">
         <v>2378</v>
       </c>
-      <c r="B619">
-        <v>15998258305</v>
-      </c>
-      <c r="C619" t="s">
-        <v>11</v>
-      </c>
-      <c r="D619" t="s">
+      <c r="E619" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F619" t="s">
+        <v>14</v>
+      </c>
+      <c r="G619" t="s">
         <v>2379</v>
-      </c>
-      <c r="E619" t="s">
-        <v>2380</v>
-      </c>
-      <c r="F619" t="s">
-        <v>14</v>
-      </c>
-      <c r="G619" t="s">
-        <v>2381</v>
       </c>
       <c r="H619" t="s">
         <v>16</v>
@@ -29444,19 +29432,19 @@
     </row>
     <row r="620" spans="1:10">
       <c r="A620" t="s">
-        <v>1728</v>
+        <v>2380</v>
       </c>
       <c r="B620">
-        <v>15840480280</v>
+        <v>18909882703</v>
       </c>
       <c r="C620" t="s">
         <v>11</v>
       </c>
       <c r="D620" t="s">
+        <v>2381</v>
+      </c>
+      <c r="E620" t="s">
         <v>2382</v>
-      </c>
-      <c r="E620" t="s">
-        <v>1339</v>
       </c>
       <c r="F620" t="s">
         <v>14</v>
@@ -29471,7 +29459,7 @@
         <v>17</v>
       </c>
       <c r="J620" t="s">
-        <v>248</v>
+        <v>106</v>
       </c>
     </row>
     <row r="621" spans="1:10">
@@ -29479,7 +29467,7 @@
         <v>2384</v>
       </c>
       <c r="B621">
-        <v>18909882703</v>
+        <v>18250150497</v>
       </c>
       <c r="C621" t="s">
         <v>11</v>
@@ -29491,7 +29479,7 @@
         <v>2386</v>
       </c>
       <c r="F621" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G621" t="s">
         <v>2387</v>
@@ -29503,7 +29491,7 @@
         <v>17</v>
       </c>
       <c r="J621" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="622" spans="1:10">
@@ -29511,7 +29499,7 @@
         <v>2388</v>
       </c>
       <c r="B622">
-        <v>18250150497</v>
+        <v>15840232229</v>
       </c>
       <c r="C622" t="s">
         <v>11</v>
@@ -29523,7 +29511,7 @@
         <v>2390</v>
       </c>
       <c r="F622" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G622" t="s">
         <v>2391</v>
@@ -29535,7 +29523,7 @@
         <v>17</v>
       </c>
       <c r="J622" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="623" spans="1:10">
@@ -29543,7 +29531,7 @@
         <v>2392</v>
       </c>
       <c r="B623">
-        <v>15840232229</v>
+        <v>13252883336</v>
       </c>
       <c r="C623" t="s">
         <v>11</v>
@@ -29575,7 +29563,7 @@
         <v>2396</v>
       </c>
       <c r="B624">
-        <v>13252883336</v>
+        <v>15242819145</v>
       </c>
       <c r="C624" t="s">
         <v>11</v>
@@ -29607,7 +29595,7 @@
         <v>2400</v>
       </c>
       <c r="B625">
-        <v>15242819145</v>
+        <v>13940143526</v>
       </c>
       <c r="C625" t="s">
         <v>11</v>
@@ -29616,13 +29604,13 @@
         <v>2401</v>
       </c>
       <c r="E625" t="s">
+        <v>684</v>
+      </c>
+      <c r="F625" t="s">
+        <v>48</v>
+      </c>
+      <c r="G625" t="s">
         <v>2402</v>
-      </c>
-      <c r="F625" t="s">
-        <v>14</v>
-      </c>
-      <c r="G625" t="s">
-        <v>2403</v>
       </c>
       <c r="H625" t="s">
         <v>16</v>
@@ -29636,22 +29624,22 @@
     </row>
     <row r="626" spans="1:10">
       <c r="A626" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B626">
+        <v>15840466785</v>
+      </c>
+      <c r="C626" t="s">
+        <v>11</v>
+      </c>
+      <c r="D626" t="s">
         <v>2404</v>
       </c>
-      <c r="B626">
-        <v>13940143526</v>
-      </c>
-      <c r="C626" t="s">
-        <v>11</v>
-      </c>
-      <c r="D626" t="s">
+      <c r="E626" t="s">
         <v>2405</v>
       </c>
-      <c r="E626" t="s">
-        <v>684</v>
-      </c>
       <c r="F626" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G626" t="s">
         <v>2406</v>
@@ -29671,7 +29659,7 @@
         <v>2407</v>
       </c>
       <c r="B627">
-        <v>15840466785</v>
+        <v>15942578393</v>
       </c>
       <c r="C627" t="s">
         <v>11</v>
@@ -29703,7 +29691,7 @@
         <v>2411</v>
       </c>
       <c r="B628">
-        <v>15942578393</v>
+        <v>18842549832</v>
       </c>
       <c r="C628" t="s">
         <v>11</v>
@@ -29735,7 +29723,7 @@
         <v>2415</v>
       </c>
       <c r="B629">
-        <v>18842549832</v>
+        <v>15940117992</v>
       </c>
       <c r="C629" t="s">
         <v>11</v>
@@ -29767,7 +29755,7 @@
         <v>2419</v>
       </c>
       <c r="B630">
-        <v>15940117992</v>
+        <v>13514212721</v>
       </c>
       <c r="C630" t="s">
         <v>11</v>
@@ -29776,13 +29764,13 @@
         <v>2420</v>
       </c>
       <c r="E630" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F630" t="s">
+        <v>14</v>
+      </c>
+      <c r="G630" t="s">
         <v>2421</v>
-      </c>
-      <c r="F630" t="s">
-        <v>14</v>
-      </c>
-      <c r="G630" t="s">
-        <v>2422</v>
       </c>
       <c r="H630" t="s">
         <v>16</v>
@@ -29796,22 +29784,22 @@
     </row>
     <row r="631" spans="1:10">
       <c r="A631" t="s">
+        <v>2422</v>
+      </c>
+      <c r="B631">
+        <v>13840434287</v>
+      </c>
+      <c r="C631" t="s">
+        <v>11</v>
+      </c>
+      <c r="D631" t="s">
         <v>2423</v>
       </c>
-      <c r="B631">
-        <v>13514212721</v>
-      </c>
-      <c r="C631" t="s">
-        <v>11</v>
-      </c>
-      <c r="D631" t="s">
+      <c r="E631" t="s">
         <v>2424</v>
       </c>
-      <c r="E631" t="s">
-        <v>1401</v>
-      </c>
       <c r="F631" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G631" t="s">
         <v>2425</v>
@@ -29831,7 +29819,7 @@
         <v>2426</v>
       </c>
       <c r="B632">
-        <v>13840434287</v>
+        <v>15998179287</v>
       </c>
       <c r="C632" t="s">
         <v>11</v>
@@ -29843,7 +29831,7 @@
         <v>2428</v>
       </c>
       <c r="F632" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G632" t="s">
         <v>2429</v>
@@ -29863,7 +29851,7 @@
         <v>2430</v>
       </c>
       <c r="B633">
-        <v>15998179287</v>
+        <v>15242074310</v>
       </c>
       <c r="C633" t="s">
         <v>11</v>
@@ -29895,19 +29883,19 @@
         <v>2434</v>
       </c>
       <c r="B634">
-        <v>15242074310</v>
+        <v>18240482818</v>
       </c>
       <c r="C634" t="s">
         <v>11</v>
       </c>
-      <c r="D634" t="s">
+      <c r="D634" s="6" t="s">
         <v>2435</v>
       </c>
       <c r="E634" t="s">
         <v>2436</v>
       </c>
       <c r="F634" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G634" t="s">
         <v>2437</v>
@@ -29927,19 +29915,19 @@
         <v>2438</v>
       </c>
       <c r="B635">
-        <v>18240482818</v>
+        <v>13644035982</v>
       </c>
       <c r="C635" t="s">
         <v>11</v>
       </c>
-      <c r="D635" s="6" t="s">
+      <c r="D635" t="s">
         <v>2439</v>
       </c>
       <c r="E635" t="s">
         <v>2440</v>
       </c>
       <c r="F635" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G635" t="s">
         <v>2441</v>
@@ -29959,7 +29947,7 @@
         <v>2442</v>
       </c>
       <c r="B636">
-        <v>13644035982</v>
+        <v>13478374317</v>
       </c>
       <c r="C636" t="s">
         <v>11</v>
@@ -29991,7 +29979,7 @@
         <v>2446</v>
       </c>
       <c r="B637">
-        <v>13478374317</v>
+        <v>18640587690</v>
       </c>
       <c r="C637" t="s">
         <v>11</v>
@@ -30023,7 +30011,7 @@
         <v>2450</v>
       </c>
       <c r="B638">
-        <v>18640587690</v>
+        <v>15998298618</v>
       </c>
       <c r="C638" t="s">
         <v>11</v>
@@ -30055,12 +30043,12 @@
         <v>2454</v>
       </c>
       <c r="B639">
-        <v>15998298618</v>
+        <v>15248665679</v>
       </c>
       <c r="C639" t="s">
         <v>11</v>
       </c>
-      <c r="D639" t="s">
+      <c r="D639" s="6" t="s">
         <v>2455</v>
       </c>
       <c r="E639" t="s">
@@ -30087,22 +30075,22 @@
         <v>2458</v>
       </c>
       <c r="B640">
-        <v>15248665679</v>
+        <v>18740083797</v>
       </c>
       <c r="C640" t="s">
         <v>11</v>
       </c>
-      <c r="D640" s="6" t="s">
+      <c r="D640" t="s">
         <v>2459</v>
       </c>
       <c r="E640" t="s">
+        <v>2394</v>
+      </c>
+      <c r="F640" t="s">
+        <v>14</v>
+      </c>
+      <c r="G640" t="s">
         <v>2460</v>
-      </c>
-      <c r="F640" t="s">
-        <v>14</v>
-      </c>
-      <c r="G640" t="s">
-        <v>2461</v>
       </c>
       <c r="H640" t="s">
         <v>16</v>
@@ -30116,19 +30104,19 @@
     </row>
     <row r="641" spans="1:10">
       <c r="A641" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B641">
+        <v>13390100953</v>
+      </c>
+      <c r="C641" t="s">
+        <v>11</v>
+      </c>
+      <c r="D641" t="s">
         <v>2462</v>
       </c>
-      <c r="B641">
-        <v>18740083797</v>
-      </c>
-      <c r="C641" t="s">
-        <v>11</v>
-      </c>
-      <c r="D641" t="s">
+      <c r="E641" t="s">
         <v>2463</v>
-      </c>
-      <c r="E641" t="s">
-        <v>2398</v>
       </c>
       <c r="F641" t="s">
         <v>14</v>
@@ -30151,7 +30139,7 @@
         <v>2465</v>
       </c>
       <c r="B642">
-        <v>13390100953</v>
+        <v>13998831875</v>
       </c>
       <c r="C642" t="s">
         <v>11</v>
@@ -30183,22 +30171,22 @@
         <v>2469</v>
       </c>
       <c r="B643">
-        <v>13998831875</v>
+        <v>15004080268</v>
       </c>
       <c r="C643" t="s">
         <v>11</v>
       </c>
-      <c r="D643" t="s">
+      <c r="D643" s="6" t="s">
         <v>2470</v>
       </c>
       <c r="E643" t="s">
+        <v>630</v>
+      </c>
+      <c r="F643" t="s">
+        <v>14</v>
+      </c>
+      <c r="G643" t="s">
         <v>2471</v>
-      </c>
-      <c r="F643" t="s">
-        <v>14</v>
-      </c>
-      <c r="G643" t="s">
-        <v>2472</v>
       </c>
       <c r="H643" t="s">
         <v>16</v>
@@ -30212,19 +30200,19 @@
     </row>
     <row r="644" spans="1:10">
       <c r="A644" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B644">
+        <v>15164299985</v>
+      </c>
+      <c r="C644" t="s">
+        <v>11</v>
+      </c>
+      <c r="D644" t="s">
         <v>2473</v>
       </c>
-      <c r="B644">
-        <v>15004080268</v>
-      </c>
-      <c r="C644" t="s">
-        <v>11</v>
-      </c>
-      <c r="D644" s="6" t="s">
+      <c r="E644" t="s">
         <v>2474</v>
-      </c>
-      <c r="E644" t="s">
-        <v>630</v>
       </c>
       <c r="F644" t="s">
         <v>14</v>
@@ -30247,7 +30235,7 @@
         <v>2476</v>
       </c>
       <c r="B645">
-        <v>15164299985</v>
+        <v>15642523791</v>
       </c>
       <c r="C645" t="s">
         <v>11</v>
@@ -30259,7 +30247,7 @@
         <v>2478</v>
       </c>
       <c r="F645" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G645" t="s">
         <v>2479</v>
@@ -30279,7 +30267,7 @@
         <v>2480</v>
       </c>
       <c r="B646">
-        <v>15642523791</v>
+        <v>15904076885</v>
       </c>
       <c r="C646" t="s">
         <v>11</v>
@@ -30291,7 +30279,7 @@
         <v>2482</v>
       </c>
       <c r="F646" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G646" t="s">
         <v>2483</v>
@@ -30311,7 +30299,7 @@
         <v>2484</v>
       </c>
       <c r="B647">
-        <v>15904076885</v>
+        <v>15382118711</v>
       </c>
       <c r="C647" t="s">
         <v>11</v>
@@ -30320,14 +30308,14 @@
         <v>2485</v>
       </c>
       <c r="E647" t="s">
+        <v>483</v>
+      </c>
+      <c r="F647" t="s">
+        <v>14</v>
+      </c>
+      <c r="G647" t="s">
         <v>2486</v>
       </c>
-      <c r="F647" t="s">
-        <v>14</v>
-      </c>
-      <c r="G647" t="s">
-        <v>2487</v>
-      </c>
       <c r="H647" t="s">
         <v>16</v>
       </c>
@@ -30335,24 +30323,24 @@
         <v>17</v>
       </c>
       <c r="J647" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="648" spans="1:10">
       <c r="A648" t="s">
+        <v>2487</v>
+      </c>
+      <c r="B648">
+        <v>15144490398</v>
+      </c>
+      <c r="C648" t="s">
+        <v>11</v>
+      </c>
+      <c r="D648" t="s">
         <v>2488</v>
       </c>
-      <c r="B648">
-        <v>15382118711</v>
-      </c>
-      <c r="C648" t="s">
-        <v>11</v>
-      </c>
-      <c r="D648" t="s">
+      <c r="E648" t="s">
         <v>2489</v>
-      </c>
-      <c r="E648" t="s">
-        <v>483</v>
       </c>
       <c r="F648" t="s">
         <v>14</v>
@@ -30375,7 +30363,7 @@
         <v>2491</v>
       </c>
       <c r="B649">
-        <v>15144490398</v>
+        <v>13514254107</v>
       </c>
       <c r="C649" t="s">
         <v>11</v>
@@ -30407,7 +30395,7 @@
         <v>2495</v>
       </c>
       <c r="B650">
-        <v>13514254107</v>
+        <v>13998122480</v>
       </c>
       <c r="C650" t="s">
         <v>11</v>
@@ -30439,7 +30427,7 @@
         <v>2499</v>
       </c>
       <c r="B651">
-        <v>13998122480</v>
+        <v>15140095825</v>
       </c>
       <c r="C651" t="s">
         <v>11</v>
@@ -30471,7 +30459,7 @@
         <v>2503</v>
       </c>
       <c r="B652">
-        <v>15140095825</v>
+        <v>15040124898</v>
       </c>
       <c r="C652" t="s">
         <v>11</v>
@@ -30503,7 +30491,7 @@
         <v>2507</v>
       </c>
       <c r="B653">
-        <v>15040124898</v>
+        <v>13840011518</v>
       </c>
       <c r="C653" t="s">
         <v>11</v>
@@ -30535,7 +30523,7 @@
         <v>2511</v>
       </c>
       <c r="B654">
-        <v>13840011518</v>
+        <v>18241299033</v>
       </c>
       <c r="C654" t="s">
         <v>11</v>
@@ -30567,7 +30555,7 @@
         <v>2515</v>
       </c>
       <c r="B655">
-        <v>18241299033</v>
+        <v>15802480588</v>
       </c>
       <c r="C655" t="s">
         <v>11</v>
@@ -30591,7 +30579,7 @@
         <v>17</v>
       </c>
       <c r="J655" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="656" spans="1:10">
@@ -30599,7 +30587,7 @@
         <v>2519</v>
       </c>
       <c r="B656">
-        <v>15802480588</v>
+        <v>13166737555</v>
       </c>
       <c r="C656" t="s">
         <v>11</v>
@@ -30631,7 +30619,7 @@
         <v>2523</v>
       </c>
       <c r="B657">
-        <v>13166737555</v>
+        <v>15998195305</v>
       </c>
       <c r="C657" t="s">
         <v>11</v>
@@ -30655,7 +30643,7 @@
         <v>17</v>
       </c>
       <c r="J657" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="658" spans="1:10">
@@ -30663,7 +30651,7 @@
         <v>2527</v>
       </c>
       <c r="B658">
-        <v>15998195305</v>
+        <v>13840262996</v>
       </c>
       <c r="C658" t="s">
         <v>11</v>
@@ -30695,7 +30683,7 @@
         <v>2531</v>
       </c>
       <c r="B659">
-        <v>13840262996</v>
+        <v>18640371632</v>
       </c>
       <c r="C659" t="s">
         <v>11</v>
@@ -30727,7 +30715,7 @@
         <v>2535</v>
       </c>
       <c r="B660">
-        <v>18640371632</v>
+        <v>18842459451</v>
       </c>
       <c r="C660" t="s">
         <v>11</v>
@@ -30759,7 +30747,7 @@
         <v>2539</v>
       </c>
       <c r="B661">
-        <v>18842459451</v>
+        <v>13624075409</v>
       </c>
       <c r="C661" t="s">
         <v>11</v>
@@ -30783,7 +30771,7 @@
         <v>17</v>
       </c>
       <c r="J661" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="662" spans="1:10">
@@ -30791,7 +30779,7 @@
         <v>2543</v>
       </c>
       <c r="B662">
-        <v>13624075409</v>
+        <v>13889334619</v>
       </c>
       <c r="C662" t="s">
         <v>11</v>
@@ -30815,7 +30803,7 @@
         <v>17</v>
       </c>
       <c r="J662" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
     </row>
     <row r="663" spans="1:10">
@@ -30823,7 +30811,7 @@
         <v>2547</v>
       </c>
       <c r="B663">
-        <v>13889334619</v>
+        <v>15541555926</v>
       </c>
       <c r="C663" t="s">
         <v>11</v>
@@ -30835,7 +30823,7 @@
         <v>2549</v>
       </c>
       <c r="F663" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G663" t="s">
         <v>2550</v>
@@ -30847,7 +30835,7 @@
         <v>17</v>
       </c>
       <c r="J663" t="s">
-        <v>82</v>
+        <v>248</v>
       </c>
     </row>
     <row r="664" spans="1:10">
@@ -30855,7 +30843,7 @@
         <v>2551</v>
       </c>
       <c r="B664">
-        <v>15541555926</v>
+        <v>15040990584</v>
       </c>
       <c r="C664" t="s">
         <v>11</v>
@@ -30867,7 +30855,7 @@
         <v>2553</v>
       </c>
       <c r="F664" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G664" t="s">
         <v>2554</v>
@@ -30879,7 +30867,7 @@
         <v>17</v>
       </c>
       <c r="J664" t="s">
-        <v>248</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="665" spans="1:10">
@@ -30887,7 +30875,7 @@
         <v>2555</v>
       </c>
       <c r="B665">
-        <v>15040990584</v>
+        <v>15242007682</v>
       </c>
       <c r="C665" t="s">
         <v>11</v>
@@ -30911,7 +30899,7 @@
         <v>17</v>
       </c>
       <c r="J665" t="s">
-        <v>1473</v>
+        <v>82</v>
       </c>
     </row>
     <row r="666" spans="1:10">
@@ -30919,7 +30907,7 @@
         <v>2559</v>
       </c>
       <c r="B666">
-        <v>15242007682</v>
+        <v>18640154358</v>
       </c>
       <c r="C666" t="s">
         <v>11</v>
@@ -30951,7 +30939,7 @@
         <v>2563</v>
       </c>
       <c r="B667">
-        <v>18640154358</v>
+        <v>13998853389</v>
       </c>
       <c r="C667" t="s">
         <v>11</v>
@@ -30975,7 +30963,7 @@
         <v>17</v>
       </c>
       <c r="J667" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="668" spans="1:10">
@@ -30983,7 +30971,7 @@
         <v>2567</v>
       </c>
       <c r="B668">
-        <v>13998853389</v>
+        <v>13654059894</v>
       </c>
       <c r="C668" t="s">
         <v>11</v>
@@ -30995,7 +30983,7 @@
         <v>2569</v>
       </c>
       <c r="F668" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G668" t="s">
         <v>2570</v>
@@ -31015,7 +31003,7 @@
         <v>2571</v>
       </c>
       <c r="B669">
-        <v>13654059894</v>
+        <v>18242052272</v>
       </c>
       <c r="C669" t="s">
         <v>11</v>
@@ -31047,7 +31035,7 @@
         <v>2575</v>
       </c>
       <c r="B670">
-        <v>18242052272</v>
+        <v>18309813336</v>
       </c>
       <c r="C670" t="s">
         <v>11</v>
@@ -31059,7 +31047,7 @@
         <v>2577</v>
       </c>
       <c r="F670" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G670" t="s">
         <v>2578</v>
@@ -31079,7 +31067,7 @@
         <v>2579</v>
       </c>
       <c r="B671">
-        <v>18309813336</v>
+        <v>18204062898</v>
       </c>
       <c r="C671" t="s">
         <v>11</v>
@@ -31111,7 +31099,7 @@
         <v>2583</v>
       </c>
       <c r="B672">
-        <v>18204062898</v>
+        <v>13897908815</v>
       </c>
       <c r="C672" t="s">
         <v>11</v>
@@ -31143,7 +31131,7 @@
         <v>2587</v>
       </c>
       <c r="B673">
-        <v>13897908815</v>
+        <v>18504059896</v>
       </c>
       <c r="C673" t="s">
         <v>11</v>
@@ -31175,7 +31163,7 @@
         <v>2591</v>
       </c>
       <c r="B674">
-        <v>18504059896</v>
+        <v>13840128837</v>
       </c>
       <c r="C674" t="s">
         <v>11</v>
@@ -31207,7 +31195,7 @@
         <v>2595</v>
       </c>
       <c r="B675">
-        <v>13840128837</v>
+        <v>15998157158</v>
       </c>
       <c r="C675" t="s">
         <v>11</v>
@@ -31216,14 +31204,14 @@
         <v>2596</v>
       </c>
       <c r="E675" t="s">
+        <v>1685</v>
+      </c>
+      <c r="F675" t="s">
+        <v>48</v>
+      </c>
+      <c r="G675" t="s">
         <v>2597</v>
       </c>
-      <c r="F675" t="s">
-        <v>14</v>
-      </c>
-      <c r="G675" t="s">
-        <v>2598</v>
-      </c>
       <c r="H675" t="s">
         <v>16</v>
       </c>
@@ -31231,27 +31219,27 @@
         <v>17</v>
       </c>
       <c r="J675" t="s">
-        <v>101</v>
+        <v>248</v>
       </c>
     </row>
     <row r="676" spans="1:10">
       <c r="A676" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B676">
+        <v>13614017834</v>
+      </c>
+      <c r="C676" t="s">
+        <v>11</v>
+      </c>
+      <c r="D676" t="s">
         <v>2599</v>
       </c>
-      <c r="B676">
-        <v>15998157158</v>
-      </c>
-      <c r="C676" t="s">
-        <v>11</v>
-      </c>
-      <c r="D676" t="s">
+      <c r="E676" t="s">
         <v>2600</v>
       </c>
-      <c r="E676" t="s">
-        <v>1685</v>
-      </c>
       <c r="F676" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G676" t="s">
         <v>2601</v>
@@ -31263,7 +31251,7 @@
         <v>17</v>
       </c>
       <c r="J676" t="s">
-        <v>248</v>
+        <v>96</v>
       </c>
     </row>
     <row r="677" spans="1:10">
@@ -31271,7 +31259,7 @@
         <v>2602</v>
       </c>
       <c r="B677">
-        <v>13614017834</v>
+        <v>13804042835</v>
       </c>
       <c r="C677" t="s">
         <v>11</v>
@@ -31295,7 +31283,7 @@
         <v>17</v>
       </c>
       <c r="J677" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="678" spans="1:10">
@@ -31303,7 +31291,7 @@
         <v>2606</v>
       </c>
       <c r="B678">
-        <v>13804042835</v>
+        <v>18642032242</v>
       </c>
       <c r="C678" t="s">
         <v>11</v>
@@ -31327,30 +31315,30 @@
         <v>17</v>
       </c>
       <c r="J678" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="679" spans="1:10">
       <c r="A679" t="s">
+        <v>62</v>
+      </c>
+      <c r="B679">
+        <v>13644073596</v>
+      </c>
+      <c r="C679" t="s">
+        <v>11</v>
+      </c>
+      <c r="D679" t="s">
         <v>2610</v>
       </c>
-      <c r="B679">
-        <v>18642032242</v>
-      </c>
-      <c r="C679" t="s">
-        <v>11</v>
-      </c>
-      <c r="D679" t="s">
+      <c r="E679" t="s">
         <v>2611</v>
       </c>
-      <c r="E679" t="s">
+      <c r="F679" t="s">
+        <v>14</v>
+      </c>
+      <c r="G679" t="s">
         <v>2612</v>
-      </c>
-      <c r="F679" t="s">
-        <v>14</v>
-      </c>
-      <c r="G679" t="s">
-        <v>2613</v>
       </c>
       <c r="H679" t="s">
         <v>16</v>
@@ -31364,10 +31352,10 @@
     </row>
     <row r="680" spans="1:10">
       <c r="A680" t="s">
-        <v>62</v>
+        <v>2613</v>
       </c>
       <c r="B680">
-        <v>13644073596</v>
+        <v>15640129329</v>
       </c>
       <c r="C680" t="s">
         <v>11</v>
@@ -31379,7 +31367,7 @@
         <v>2615</v>
       </c>
       <c r="F680" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G680" t="s">
         <v>2616</v>
@@ -31399,7 +31387,7 @@
         <v>2617</v>
       </c>
       <c r="B681">
-        <v>15640129329</v>
+        <v>13478016566</v>
       </c>
       <c r="C681" t="s">
         <v>11</v>
@@ -31411,7 +31399,7 @@
         <v>2619</v>
       </c>
       <c r="F681" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G681" t="s">
         <v>2620</v>
@@ -31431,7 +31419,7 @@
         <v>2621</v>
       </c>
       <c r="B682">
-        <v>13478016566</v>
+        <v>15840134519</v>
       </c>
       <c r="C682" t="s">
         <v>11</v>
@@ -31443,7 +31431,7 @@
         <v>2623</v>
       </c>
       <c r="F682" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G682" t="s">
         <v>2624</v>
@@ -31463,7 +31451,7 @@
         <v>2625</v>
       </c>
       <c r="B683">
-        <v>15840134519</v>
+        <v>18842511369</v>
       </c>
       <c r="C683" t="s">
         <v>11</v>
@@ -31475,7 +31463,7 @@
         <v>2627</v>
       </c>
       <c r="F683" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G683" t="s">
         <v>2628</v>
@@ -31492,26 +31480,26 @@
     </row>
     <row r="684" spans="1:10">
       <c r="A684" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B684">
+        <v>15998352057</v>
+      </c>
+      <c r="C684" t="s">
+        <v>11</v>
+      </c>
+      <c r="D684" t="s">
         <v>2629</v>
       </c>
-      <c r="B684">
-        <v>18842511369</v>
-      </c>
-      <c r="C684" t="s">
-        <v>11</v>
-      </c>
-      <c r="D684" t="s">
+      <c r="E684" t="s">
         <v>2630</v>
       </c>
-      <c r="E684" t="s">
+      <c r="F684" t="s">
+        <v>14</v>
+      </c>
+      <c r="G684" t="s">
         <v>2631</v>
       </c>
-      <c r="F684" t="s">
-        <v>14</v>
-      </c>
-      <c r="G684" t="s">
-        <v>2632</v>
-      </c>
       <c r="H684" t="s">
         <v>16</v>
       </c>
@@ -31519,15 +31507,15 @@
         <v>17</v>
       </c>
       <c r="J684" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="685" spans="1:10">
       <c r="A685" t="s">
-        <v>1039</v>
+        <v>2632</v>
       </c>
       <c r="B685">
-        <v>15998352057</v>
+        <v>15940292978</v>
       </c>
       <c r="C685" t="s">
         <v>11</v>
@@ -31559,7 +31547,7 @@
         <v>2636</v>
       </c>
       <c r="B686">
-        <v>15940292978</v>
+        <v>13904012773</v>
       </c>
       <c r="C686" t="s">
         <v>11</v>
@@ -31591,7 +31579,7 @@
         <v>2640</v>
       </c>
       <c r="B687">
-        <v>13904012773</v>
+        <v>13644034472</v>
       </c>
       <c r="C687" t="s">
         <v>11</v>
@@ -31623,7 +31611,7 @@
         <v>2644</v>
       </c>
       <c r="B688">
-        <v>13644034472</v>
+        <v>18509885598</v>
       </c>
       <c r="C688" t="s">
         <v>11</v>
@@ -31655,7 +31643,7 @@
         <v>2648</v>
       </c>
       <c r="B689">
-        <v>18509885598</v>
+        <v>13591657132</v>
       </c>
       <c r="C689" t="s">
         <v>11</v>
@@ -31687,7 +31675,7 @@
         <v>2652</v>
       </c>
       <c r="B690">
-        <v>13591657132</v>
+        <v>18640057225</v>
       </c>
       <c r="C690" t="s">
         <v>11</v>
@@ -31719,7 +31707,7 @@
         <v>2656</v>
       </c>
       <c r="B691">
-        <v>18640057225</v>
+        <v>13332414115</v>
       </c>
       <c r="C691" t="s">
         <v>11</v>
@@ -31751,7 +31739,7 @@
         <v>2660</v>
       </c>
       <c r="B692">
-        <v>13332414115</v>
+        <v>15604012915</v>
       </c>
       <c r="C692" t="s">
         <v>11</v>
@@ -31763,7 +31751,7 @@
         <v>2662</v>
       </c>
       <c r="F692" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G692" t="s">
         <v>2663</v>
@@ -31780,25 +31768,25 @@
     </row>
     <row r="693" spans="1:10">
       <c r="A693" t="s">
+        <v>831</v>
+      </c>
+      <c r="B693">
+        <v>13624217382</v>
+      </c>
+      <c r="C693" t="s">
+        <v>11</v>
+      </c>
+      <c r="D693" t="s">
         <v>2664</v>
       </c>
-      <c r="B693">
-        <v>15604012915</v>
-      </c>
-      <c r="C693" t="s">
-        <v>11</v>
-      </c>
-      <c r="D693" t="s">
+      <c r="E693" t="s">
         <v>2665</v>
       </c>
-      <c r="E693" t="s">
+      <c r="F693" t="s">
+        <v>14</v>
+      </c>
+      <c r="G693" t="s">
         <v>2666</v>
-      </c>
-      <c r="F693" t="s">
-        <v>48</v>
-      </c>
-      <c r="G693" t="s">
-        <v>2667</v>
       </c>
       <c r="H693" t="s">
         <v>16</v>
@@ -31812,10 +31800,10 @@
     </row>
     <row r="694" spans="1:10">
       <c r="A694" t="s">
-        <v>831</v>
+        <v>2667</v>
       </c>
       <c r="B694">
-        <v>13624217382</v>
+        <v>18304041977</v>
       </c>
       <c r="C694" t="s">
         <v>11</v>
@@ -31827,10 +31815,10 @@
         <v>2669</v>
       </c>
       <c r="F694" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G694" t="s">
-        <v>2670</v>
+        <v>2605</v>
       </c>
       <c r="H694" t="s">
         <v>16</v>
@@ -31844,25 +31832,25 @@
     </row>
     <row r="695" spans="1:10">
       <c r="A695" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B695">
+        <v>13609826427</v>
+      </c>
+      <c r="C695" t="s">
+        <v>11</v>
+      </c>
+      <c r="D695" t="s">
         <v>2671</v>
       </c>
-      <c r="B695">
-        <v>18304041977</v>
-      </c>
-      <c r="C695" t="s">
-        <v>11</v>
-      </c>
-      <c r="D695" t="s">
+      <c r="E695" t="s">
         <v>2672</v>
       </c>
-      <c r="E695" t="s">
+      <c r="F695" t="s">
+        <v>14</v>
+      </c>
+      <c r="G695" t="s">
         <v>2673</v>
-      </c>
-      <c r="F695" t="s">
-        <v>48</v>
-      </c>
-      <c r="G695" t="s">
-        <v>2609</v>
       </c>
       <c r="H695" t="s">
         <v>16</v>
@@ -31876,25 +31864,25 @@
     </row>
     <row r="696" spans="1:10">
       <c r="A696" t="s">
+        <v>120</v>
+      </c>
+      <c r="B696">
+        <v>15242527655</v>
+      </c>
+      <c r="C696" t="s">
+        <v>11</v>
+      </c>
+      <c r="D696" t="s">
         <v>2674</v>
       </c>
-      <c r="B696">
-        <v>13609826427</v>
-      </c>
-      <c r="C696" t="s">
-        <v>11</v>
-      </c>
-      <c r="D696" t="s">
+      <c r="E696" t="s">
         <v>2675</v>
       </c>
-      <c r="E696" t="s">
+      <c r="F696" t="s">
+        <v>14</v>
+      </c>
+      <c r="G696" t="s">
         <v>2676</v>
-      </c>
-      <c r="F696" t="s">
-        <v>14</v>
-      </c>
-      <c r="G696" t="s">
-        <v>2677</v>
       </c>
       <c r="H696" t="s">
         <v>16</v>
@@ -31908,10 +31896,10 @@
     </row>
     <row r="697" spans="1:10">
       <c r="A697" t="s">
-        <v>120</v>
+        <v>2677</v>
       </c>
       <c r="B697">
-        <v>15242527655</v>
+        <v>18698854886</v>
       </c>
       <c r="C697" t="s">
         <v>11</v>
@@ -31943,7 +31931,7 @@
         <v>2681</v>
       </c>
       <c r="B698">
-        <v>18698854886</v>
+        <v>13654071630</v>
       </c>
       <c r="C698" t="s">
         <v>11</v>
@@ -31972,25 +31960,25 @@
     </row>
     <row r="699" spans="1:10">
       <c r="A699" t="s">
+        <v>738</v>
+      </c>
+      <c r="B699">
+        <v>13840541055</v>
+      </c>
+      <c r="C699" t="s">
+        <v>11</v>
+      </c>
+      <c r="D699" t="s">
         <v>2685</v>
       </c>
-      <c r="B699">
-        <v>13654071630</v>
-      </c>
-      <c r="C699" t="s">
-        <v>11</v>
-      </c>
-      <c r="D699" t="s">
+      <c r="E699" t="s">
+        <v>292</v>
+      </c>
+      <c r="F699" t="s">
+        <v>14</v>
+      </c>
+      <c r="G699" t="s">
         <v>2686</v>
-      </c>
-      <c r="E699" t="s">
-        <v>2687</v>
-      </c>
-      <c r="F699" t="s">
-        <v>14</v>
-      </c>
-      <c r="G699" t="s">
-        <v>2688</v>
       </c>
       <c r="H699" t="s">
         <v>16</v>
@@ -32004,22 +31992,22 @@
     </row>
     <row r="700" spans="1:10">
       <c r="A700" t="s">
-        <v>738</v>
+        <v>2687</v>
       </c>
       <c r="B700">
-        <v>13840541055</v>
+        <v>17702488971</v>
       </c>
       <c r="C700" t="s">
         <v>11</v>
       </c>
       <c r="D700" t="s">
+        <v>2688</v>
+      </c>
+      <c r="E700" t="s">
         <v>2689</v>
       </c>
-      <c r="E700" t="s">
-        <v>292</v>
-      </c>
       <c r="F700" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G700" t="s">
         <v>2690</v>
@@ -32039,7 +32027,7 @@
         <v>2691</v>
       </c>
       <c r="B701">
-        <v>17702488971</v>
+        <v>13897971620</v>
       </c>
       <c r="C701" t="s">
         <v>11</v>
@@ -32051,7 +32039,7 @@
         <v>2693</v>
       </c>
       <c r="F701" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G701" t="s">
         <v>2694</v>
@@ -32071,7 +32059,7 @@
         <v>2695</v>
       </c>
       <c r="B702">
-        <v>13897971620</v>
+        <v>13904000871</v>
       </c>
       <c r="C702" t="s">
         <v>11</v>
@@ -32103,7 +32091,7 @@
         <v>2699</v>
       </c>
       <c r="B703">
-        <v>13904000871</v>
+        <v>15734066990</v>
       </c>
       <c r="C703" t="s">
         <v>11</v>
@@ -32135,7 +32123,7 @@
         <v>2703</v>
       </c>
       <c r="B704">
-        <v>15734066990</v>
+        <v>13940283317</v>
       </c>
       <c r="C704" t="s">
         <v>11</v>
@@ -32167,7 +32155,7 @@
         <v>2707</v>
       </c>
       <c r="B705">
-        <v>13940283317</v>
+        <v>13664111231</v>
       </c>
       <c r="C705" t="s">
         <v>11</v>
@@ -32199,7 +32187,7 @@
         <v>2711</v>
       </c>
       <c r="B706">
-        <v>13664111231</v>
+        <v>15998219408</v>
       </c>
       <c r="C706" t="s">
         <v>11</v>
@@ -32231,7 +32219,7 @@
         <v>2715</v>
       </c>
       <c r="B707">
-        <v>15998219408</v>
+        <v>15840387776</v>
       </c>
       <c r="C707" t="s">
         <v>11</v>
@@ -32263,7 +32251,7 @@
         <v>2719</v>
       </c>
       <c r="B708">
-        <v>15840387776</v>
+        <v>13478392868</v>
       </c>
       <c r="C708" t="s">
         <v>11</v>
@@ -32295,7 +32283,7 @@
         <v>2723</v>
       </c>
       <c r="B709">
-        <v>13478392868</v>
+        <v>13072476166</v>
       </c>
       <c r="C709" t="s">
         <v>11</v>
@@ -32327,7 +32315,7 @@
         <v>2727</v>
       </c>
       <c r="B710">
-        <v>13072476166</v>
+        <v>18698844691</v>
       </c>
       <c r="C710" t="s">
         <v>11</v>
@@ -32359,7 +32347,7 @@
         <v>2731</v>
       </c>
       <c r="B711">
-        <v>18698844691</v>
+        <v>13840210503</v>
       </c>
       <c r="C711" t="s">
         <v>11</v>
@@ -32391,7 +32379,7 @@
         <v>2735</v>
       </c>
       <c r="B712">
-        <v>13840210503</v>
+        <v>15040203606</v>
       </c>
       <c r="C712" t="s">
         <v>11</v>
@@ -32423,7 +32411,7 @@
         <v>2739</v>
       </c>
       <c r="B713">
-        <v>15040203606</v>
+        <v>13998159802</v>
       </c>
       <c r="C713" t="s">
         <v>11</v>
@@ -32455,7 +32443,7 @@
         <v>2743</v>
       </c>
       <c r="B714">
-        <v>13998159802</v>
+        <v>15142173638</v>
       </c>
       <c r="C714" t="s">
         <v>11</v>
@@ -32487,7 +32475,7 @@
         <v>2747</v>
       </c>
       <c r="B715">
-        <v>15142173638</v>
+        <v>13591809861</v>
       </c>
       <c r="C715" t="s">
         <v>11</v>
@@ -32511,7 +32499,7 @@
         <v>17</v>
       </c>
       <c r="J715" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="716" spans="1:10">
@@ -32519,7 +32507,7 @@
         <v>2751</v>
       </c>
       <c r="B716">
-        <v>13591809861</v>
+        <v>15041239873</v>
       </c>
       <c r="C716" t="s">
         <v>11</v>
@@ -32543,30 +32531,30 @@
         <v>17</v>
       </c>
       <c r="J716" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="717" spans="1:10">
       <c r="A717" t="s">
+        <v>293</v>
+      </c>
+      <c r="B717">
+        <v>17543407989</v>
+      </c>
+      <c r="C717" t="s">
+        <v>11</v>
+      </c>
+      <c r="D717" t="s">
         <v>2755</v>
       </c>
-      <c r="B717">
-        <v>15041239873</v>
-      </c>
-      <c r="C717" t="s">
-        <v>11</v>
-      </c>
-      <c r="D717" t="s">
+      <c r="E717" t="s">
         <v>2756</v>
       </c>
-      <c r="E717" t="s">
+      <c r="F717" t="s">
+        <v>14</v>
+      </c>
+      <c r="G717" t="s">
         <v>2757</v>
-      </c>
-      <c r="F717" t="s">
-        <v>14</v>
-      </c>
-      <c r="G717" t="s">
-        <v>2758</v>
       </c>
       <c r="H717" t="s">
         <v>16</v>
@@ -32580,10 +32568,10 @@
     </row>
     <row r="718" spans="1:10">
       <c r="A718" t="s">
-        <v>293</v>
+        <v>2758</v>
       </c>
       <c r="B718">
-        <v>17543407989</v>
+        <v>15040290767</v>
       </c>
       <c r="C718" t="s">
         <v>11</v>
@@ -32615,7 +32603,7 @@
         <v>2762</v>
       </c>
       <c r="B719">
-        <v>15040290767</v>
+        <v>13840239377</v>
       </c>
       <c r="C719" t="s">
         <v>11</v>
@@ -32644,25 +32632,25 @@
     </row>
     <row r="720" spans="1:10">
       <c r="A720" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B720">
+        <v>13889363880</v>
+      </c>
+      <c r="C720" t="s">
+        <v>11</v>
+      </c>
+      <c r="D720" t="s">
         <v>2766</v>
       </c>
-      <c r="B720">
-        <v>13840239377</v>
-      </c>
-      <c r="C720" t="s">
-        <v>11</v>
-      </c>
-      <c r="D720" t="s">
+      <c r="E720" t="s">
         <v>2767</v>
       </c>
-      <c r="E720" t="s">
+      <c r="F720" t="s">
+        <v>14</v>
+      </c>
+      <c r="G720" t="s">
         <v>2768</v>
-      </c>
-      <c r="F720" t="s">
-        <v>14</v>
-      </c>
-      <c r="G720" t="s">
-        <v>2769</v>
       </c>
       <c r="H720" t="s">
         <v>16</v>
@@ -32676,10 +32664,10 @@
     </row>
     <row r="721" spans="1:10">
       <c r="A721" t="s">
-        <v>2355</v>
+        <v>2769</v>
       </c>
       <c r="B721">
-        <v>13889363880</v>
+        <v>15040140407</v>
       </c>
       <c r="C721" t="s">
         <v>11</v>
@@ -32691,7 +32679,7 @@
         <v>2771</v>
       </c>
       <c r="F721" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G721" t="s">
         <v>2772</v>
@@ -32703,7 +32691,7 @@
         <v>17</v>
       </c>
       <c r="J721" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="722" spans="1:10">
@@ -32711,7 +32699,7 @@
         <v>2773</v>
       </c>
       <c r="B722">
-        <v>15040140407</v>
+        <v>15940188173</v>
       </c>
       <c r="C722" t="s">
         <v>11</v>
@@ -32726,7 +32714,7 @@
         <v>48</v>
       </c>
       <c r="G722" t="s">
-        <v>2776</v>
+        <v>2772</v>
       </c>
       <c r="H722" t="s">
         <v>16</v>
@@ -32740,26 +32728,26 @@
     </row>
     <row r="723" spans="1:10">
       <c r="A723" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B723">
+        <v>18940294225</v>
+      </c>
+      <c r="C723" t="s">
+        <v>11</v>
+      </c>
+      <c r="D723" t="s">
         <v>2777</v>
       </c>
-      <c r="B723">
-        <v>15940188173</v>
-      </c>
-      <c r="C723" t="s">
-        <v>11</v>
-      </c>
-      <c r="D723" t="s">
+      <c r="E723" t="s">
         <v>2778</v>
       </c>
-      <c r="E723" t="s">
+      <c r="F723" t="s">
+        <v>14</v>
+      </c>
+      <c r="G723" t="s">
         <v>2779</v>
       </c>
-      <c r="F723" t="s">
-        <v>48</v>
-      </c>
-      <c r="G723" t="s">
-        <v>2776</v>
-      </c>
       <c r="H723" t="s">
         <v>16</v>
       </c>
@@ -32767,7 +32755,7 @@
         <v>17</v>
       </c>
       <c r="J723" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="724" spans="1:10">
@@ -32775,7 +32763,7 @@
         <v>2780</v>
       </c>
       <c r="B724">
-        <v>18940294225</v>
+        <v>13002407189</v>
       </c>
       <c r="C724" t="s">
         <v>11</v>
@@ -32807,7 +32795,7 @@
         <v>2784</v>
       </c>
       <c r="B725">
-        <v>13002407189</v>
+        <v>15002485635</v>
       </c>
       <c r="C725" t="s">
         <v>11</v>
@@ -32839,7 +32827,7 @@
         <v>2788</v>
       </c>
       <c r="B726">
-        <v>15002485635</v>
+        <v>15904076655</v>
       </c>
       <c r="C726" t="s">
         <v>11</v>
@@ -32863,7 +32851,7 @@
         <v>17</v>
       </c>
       <c r="J726" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="727" spans="1:10">
@@ -32871,7 +32859,7 @@
         <v>2792</v>
       </c>
       <c r="B727">
-        <v>15904076655</v>
+        <v>18640006573</v>
       </c>
       <c r="C727" t="s">
         <v>11</v>
@@ -32883,7 +32871,7 @@
         <v>2794</v>
       </c>
       <c r="F727" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="G727" t="s">
         <v>2795</v>
@@ -32903,7 +32891,7 @@
         <v>2796</v>
       </c>
       <c r="B728">
-        <v>18640006573</v>
+        <v>13998842626</v>
       </c>
       <c r="C728" t="s">
         <v>11</v>
@@ -32915,7 +32903,7 @@
         <v>2798</v>
       </c>
       <c r="F728" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="G728" t="s">
         <v>2799</v>
@@ -32927,38 +32915,6 @@
         <v>17</v>
       </c>
       <c r="J728" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="729" spans="1:10">
-      <c r="A729" t="s">
-        <v>2800</v>
-      </c>
-      <c r="B729">
-        <v>13998842626</v>
-      </c>
-      <c r="C729" t="s">
-        <v>11</v>
-      </c>
-      <c r="D729" t="s">
-        <v>2801</v>
-      </c>
-      <c r="E729" t="s">
-        <v>2802</v>
-      </c>
-      <c r="F729" t="s">
-        <v>14</v>
-      </c>
-      <c r="G729" t="s">
-        <v>2803</v>
-      </c>
-      <c r="H729" t="s">
-        <v>16</v>
-      </c>
-      <c r="I729" t="s">
-        <v>17</v>
-      </c>
-      <c r="J729" t="s">
         <v>111</v>
       </c>
     </row>

--- a/rules/8221.xlsx
+++ b/rules/8221.xlsx
@@ -2240,7 +2240,7 @@
     <t>1971-03-30</t>
   </si>
   <si>
-    <t>沈阳市皇姑区童辉小学星辉校区</t>
+    <t>沈阳市皇姑区童晖小学星辉校区</t>
   </si>
   <si>
     <t>王丹</t>
@@ -9640,8 +9640,8 @@
   <sheetPr/>
   <dimension ref="A2:J728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="A476" sqref="A476"/>
+    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+      <selection activeCell="G189" sqref="G189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/rules/8221.xlsx
+++ b/rules/8221.xlsx
@@ -143,7 +143,7 @@
     <t>1990-06-06</t>
   </si>
   <si>
-    <t>沈阳市皇姑区珠江街第五小学</t>
+    <t>皇姑区珠江街第五小学琴江校区</t>
   </si>
   <si>
     <t>吕敏</t>
@@ -7449,8 +7449,8 @@
   <sheetPr/>
   <dimension ref="A2:J534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
